--- a/HTRfri.xlsx
+++ b/HTRfri.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sophia/Desktop/R Projects/gov-2213/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F690C1-189B-A446-B2CC-BFC975931812}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{122D0D28-9B3A-BA4A-A629-B83E1B195D17}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2804,9 +2804,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
-  </numFmts>
   <fonts count="7">
     <font>
       <sz val="10"/>
@@ -2863,21 +2860,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3099,12 +3097,12 @@
   <dimension ref="A1:AG1095"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="10.5" style="12" customWidth="1"/>
     <col min="2" max="2" width="41.1640625" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="16.1640625" customWidth="1"/>
@@ -3116,67 +3114,67 @@
     <col min="12" max="12" width="131.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="11" customFormat="1" ht="15.75" customHeight="1">
+    <row r="1" spans="1:33" s="8" customFormat="1" ht="15.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="6" t="s">
         <v>923</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="6" t="s">
         <v>924</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="6" t="s">
         <v>925</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="L1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="10"/>
-      <c r="N1" s="10"/>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
-      <c r="S1" s="10"/>
-      <c r="T1" s="10"/>
-      <c r="U1" s="10"/>
-      <c r="V1" s="10"/>
-      <c r="W1" s="10"/>
-      <c r="X1" s="10"/>
-      <c r="Y1" s="10"/>
-      <c r="Z1" s="10"/>
-      <c r="AA1" s="10"/>
-      <c r="AB1" s="10"/>
-      <c r="AC1" s="10"/>
-      <c r="AD1" s="10"/>
-      <c r="AE1" s="10"/>
-      <c r="AF1" s="10"/>
-      <c r="AG1" s="10"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
+      <c r="AF1" s="7"/>
+      <c r="AG1" s="7"/>
     </row>
     <row r="2" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A2" s="2">
+      <c r="A2" s="10">
         <v>42466</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -3214,7 +3212,7 @@
       </c>
     </row>
     <row r="3" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A3" s="2">
+      <c r="A3" s="10">
         <v>42486</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3252,7 +3250,7 @@
       </c>
     </row>
     <row r="4" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A4" s="2">
+      <c r="A4" s="10">
         <v>42507</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -3290,7 +3288,7 @@
       </c>
     </row>
     <row r="5" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A5" s="2">
+      <c r="A5" s="10">
         <v>42508</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -3328,7 +3326,7 @@
       </c>
     </row>
     <row r="6" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A6" s="2">
+      <c r="A6" s="10">
         <v>42509</v>
       </c>
       <c r="B6" s="1" t="s">
@@ -3366,7 +3364,7 @@
       </c>
     </row>
     <row r="7" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A7" s="2">
+      <c r="A7" s="10">
         <v>42510</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3404,7 +3402,7 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A8" s="2">
+      <c r="A8" s="10">
         <v>42516</v>
       </c>
       <c r="B8" s="1" t="s">
@@ -3442,7 +3440,7 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A9" s="2">
+      <c r="A9" s="10">
         <v>42517</v>
       </c>
       <c r="B9" s="1" t="s">
@@ -3480,7 +3478,7 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A10" s="2">
+      <c r="A10" s="10">
         <v>42517</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -3518,7 +3516,7 @@
       </c>
     </row>
     <row r="11" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A11" s="2">
+      <c r="A11" s="10">
         <v>42524</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3556,7 +3554,7 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A12" s="2">
+      <c r="A12" s="10">
         <v>42528</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -3594,7 +3592,7 @@
       </c>
     </row>
     <row r="13" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A13" s="2">
+      <c r="A13" s="10">
         <v>42555</v>
       </c>
       <c r="B13" s="1" t="s">
@@ -3632,7 +3630,7 @@
       </c>
     </row>
     <row r="14" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A14" s="2">
+      <c r="A14" s="10">
         <v>42565</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -3670,7 +3668,7 @@
       </c>
     </row>
     <row r="15" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A15" s="2">
+      <c r="A15" s="10">
         <v>42576</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -3708,7 +3706,7 @@
       </c>
     </row>
     <row r="16" spans="1:33" ht="15.75" customHeight="1">
-      <c r="A16" s="2">
+      <c r="A16" s="10">
         <v>42608</v>
       </c>
       <c r="B16" s="1" t="s">
@@ -3746,13 +3744,13 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="10">
         <v>42611</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D17" s="1">
@@ -3784,7 +3782,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A18" s="2">
+      <c r="A18" s="10">
         <v>42612</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -3822,7 +3820,7 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A19" s="2">
+      <c r="A19" s="10">
         <v>42642</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -3860,7 +3858,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A20" s="2">
+      <c r="A20" s="10">
         <v>42671</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -3898,7 +3896,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A21" s="2">
+      <c r="A21" s="10">
         <v>42706</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -3936,7 +3934,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A22" s="2">
+      <c r="A22" s="10">
         <v>42711</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -3974,7 +3972,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A23" s="2">
+      <c r="A23" s="10">
         <v>42716</v>
       </c>
       <c r="B23" s="1" t="s">
@@ -4012,7 +4010,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A24" s="2">
+      <c r="A24" s="10">
         <v>42747</v>
       </c>
       <c r="B24" s="1" t="s">
@@ -4050,7 +4048,7 @@
       </c>
     </row>
     <row r="25" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A25" s="2">
+      <c r="A25" s="10">
         <v>42753</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -4088,7 +4086,7 @@
       </c>
     </row>
     <row r="26" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A26" s="2">
+      <c r="A26" s="10">
         <v>42754</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -4126,13 +4124,13 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A27" s="2">
+      <c r="A27" s="10">
         <v>42758</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>53</v>
       </c>
       <c r="D27" s="1">
@@ -4164,7 +4162,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A28" s="2">
+      <c r="A28" s="10">
         <v>42768</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -4202,7 +4200,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A29" s="2">
+      <c r="A29" s="10">
         <v>42772</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -4240,7 +4238,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A30" s="2">
+      <c r="A30" s="10">
         <v>42781</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -4278,7 +4276,7 @@
       </c>
     </row>
     <row r="31" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A31" s="2">
+      <c r="A31" s="10">
         <v>42786</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -4316,7 +4314,7 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A32" s="2">
+      <c r="A32" s="10">
         <v>42788</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -4354,7 +4352,7 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A33" s="2">
+      <c r="A33" s="10">
         <v>42790</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -4392,7 +4390,7 @@
       </c>
     </row>
     <row r="34" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A34" s="2">
+      <c r="A34" s="10">
         <v>42800</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -4430,7 +4428,7 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A35" s="2">
+      <c r="A35" s="10">
         <v>42814</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -4468,7 +4466,7 @@
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A36" s="2">
+      <c r="A36" s="10">
         <v>42816</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -4506,7 +4504,7 @@
       </c>
     </row>
     <row r="37" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A37" s="2">
+      <c r="A37" s="10">
         <v>42823</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -4544,7 +4542,7 @@
       </c>
     </row>
     <row r="38" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A38" s="2">
+      <c r="A38" s="10">
         <v>42825</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -4582,7 +4580,7 @@
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A39" s="2">
+      <c r="A39" s="10">
         <v>42825</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -4620,7 +4618,7 @@
       </c>
     </row>
     <row r="40" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A40" s="2">
+      <c r="A40" s="10">
         <v>42828</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -4658,7 +4656,7 @@
       </c>
     </row>
     <row r="41" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A41" s="2">
+      <c r="A41" s="10">
         <v>42828</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -4696,7 +4694,7 @@
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A42" s="2">
+      <c r="A42" s="10">
         <v>42829</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -4734,7 +4732,7 @@
       </c>
     </row>
     <row r="43" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A43" s="2">
+      <c r="A43" s="10">
         <v>42829</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -4772,7 +4770,7 @@
       </c>
     </row>
     <row r="44" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A44" s="2">
+      <c r="A44" s="10">
         <v>42831</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -4810,7 +4808,7 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A45" s="2">
+      <c r="A45" s="10">
         <v>42831</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -4848,7 +4846,7 @@
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A46" s="2">
+      <c r="A46" s="10">
         <v>42832</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -4886,7 +4884,7 @@
       </c>
     </row>
     <row r="47" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A47" s="2">
+      <c r="A47" s="10">
         <v>42832</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -4924,7 +4922,7 @@
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A48" s="2">
+      <c r="A48" s="10">
         <v>42835</v>
       </c>
       <c r="B48" s="1" t="s">
@@ -4962,7 +4960,7 @@
       </c>
     </row>
     <row r="49" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A49" s="2">
+      <c r="A49" s="10">
         <v>42835</v>
       </c>
       <c r="B49" s="1" t="s">
@@ -5000,7 +4998,7 @@
       </c>
     </row>
     <row r="50" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A50" s="2">
+      <c r="A50" s="10">
         <v>42836</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -5038,7 +5036,7 @@
       </c>
     </row>
     <row r="51" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A51" s="2">
+      <c r="A51" s="10">
         <v>42836</v>
       </c>
       <c r="B51" s="1" t="s">
@@ -5076,7 +5074,7 @@
       </c>
     </row>
     <row r="52" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A52" s="2">
+      <c r="A52" s="10">
         <v>42837</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -5114,7 +5112,7 @@
       </c>
     </row>
     <row r="53" spans="1:12" ht="15.75" customHeight="1">
-      <c r="A53" s="2">
+      <c r="A53" s="10">
         <v>42837</v>
       </c>
       <c r="B53" s="1" t="s">
@@ -5152,7 +5150,7 @@
       </c>
     </row>
     <row r="54" spans="1:12" ht="13">
-      <c r="A54" s="2">
+      <c r="A54" s="10">
         <v>42838</v>
       </c>
       <c r="B54" s="1" t="s">
@@ -5190,7 +5188,7 @@
       </c>
     </row>
     <row r="55" spans="1:12" ht="13">
-      <c r="A55" s="2">
+      <c r="A55" s="10">
         <v>42838</v>
       </c>
       <c r="B55" s="1" t="s">
@@ -5228,7 +5226,7 @@
       </c>
     </row>
     <row r="56" spans="1:12" ht="13">
-      <c r="A56" s="2">
+      <c r="A56" s="10">
         <v>42843</v>
       </c>
       <c r="B56" s="1" t="s">
@@ -5266,7 +5264,7 @@
       </c>
     </row>
     <row r="57" spans="1:12" ht="13">
-      <c r="A57" s="2">
+      <c r="A57" s="10">
         <v>42843</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -5304,7 +5302,7 @@
       </c>
     </row>
     <row r="58" spans="1:12" ht="13">
-      <c r="A58" s="2">
+      <c r="A58" s="10">
         <v>42843</v>
       </c>
       <c r="B58" s="1" t="s">
@@ -5342,7 +5340,7 @@
       </c>
     </row>
     <row r="59" spans="1:12" ht="13">
-      <c r="A59" s="2">
+      <c r="A59" s="10">
         <v>42843</v>
       </c>
       <c r="B59" s="1" t="s">
@@ -5380,7 +5378,7 @@
       </c>
     </row>
     <row r="60" spans="1:12" ht="13">
-      <c r="A60" s="2">
+      <c r="A60" s="10">
         <v>42844</v>
       </c>
       <c r="B60" s="1" t="s">
@@ -5418,7 +5416,7 @@
       </c>
     </row>
     <row r="61" spans="1:12" ht="13">
-      <c r="A61" s="2">
+      <c r="A61" s="10">
         <v>42849</v>
       </c>
       <c r="B61" s="1" t="s">
@@ -5456,7 +5454,7 @@
       </c>
     </row>
     <row r="62" spans="1:12" ht="13">
-      <c r="A62" s="2">
+      <c r="A62" s="10">
         <v>42852</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -5494,7 +5492,7 @@
       </c>
     </row>
     <row r="63" spans="1:12" ht="13">
-      <c r="A63" s="2">
+      <c r="A63" s="10">
         <v>42852</v>
       </c>
       <c r="B63" s="1" t="s">
@@ -5532,7 +5530,7 @@
       </c>
     </row>
     <row r="64" spans="1:12" ht="13">
-      <c r="A64" s="2">
+      <c r="A64" s="10">
         <v>42853</v>
       </c>
       <c r="B64" s="1" t="s">
@@ -5570,7 +5568,7 @@
       </c>
     </row>
     <row r="65" spans="1:12" ht="13">
-      <c r="A65" s="2">
+      <c r="A65" s="10">
         <v>42857</v>
       </c>
       <c r="B65" s="1" t="s">
@@ -5608,7 +5606,7 @@
       </c>
     </row>
     <row r="66" spans="1:12" ht="13">
-      <c r="A66" s="2">
+      <c r="A66" s="10">
         <v>42864</v>
       </c>
       <c r="B66" s="1" t="s">
@@ -5646,7 +5644,7 @@
       </c>
     </row>
     <row r="67" spans="1:12" ht="13">
-      <c r="A67" s="2">
+      <c r="A67" s="10">
         <v>42864</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -5684,7 +5682,7 @@
       </c>
     </row>
     <row r="68" spans="1:12" ht="13">
-      <c r="A68" s="2">
+      <c r="A68" s="10">
         <v>42865</v>
       </c>
       <c r="B68" s="1" t="s">
@@ -5722,7 +5720,7 @@
       </c>
     </row>
     <row r="69" spans="1:12" ht="13">
-      <c r="A69" s="2">
+      <c r="A69" s="10">
         <v>42867</v>
       </c>
       <c r="B69" s="1" t="s">
@@ -5760,7 +5758,7 @@
       </c>
     </row>
     <row r="70" spans="1:12" ht="13">
-      <c r="A70" s="2">
+      <c r="A70" s="10">
         <v>42870</v>
       </c>
       <c r="B70" s="1" t="s">
@@ -5798,7 +5796,7 @@
       </c>
     </row>
     <row r="71" spans="1:12" ht="13">
-      <c r="A71" s="2">
+      <c r="A71" s="10">
         <v>42873</v>
       </c>
       <c r="B71" s="1" t="s">
@@ -5836,7 +5834,7 @@
       </c>
     </row>
     <row r="72" spans="1:12" ht="13">
-      <c r="A72" s="2">
+      <c r="A72" s="10">
         <v>42874</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -5874,7 +5872,7 @@
       </c>
     </row>
     <row r="73" spans="1:12" ht="13">
-      <c r="A73" s="2">
+      <c r="A73" s="10">
         <v>42874</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -5912,7 +5910,7 @@
       </c>
     </row>
     <row r="74" spans="1:12" ht="13">
-      <c r="A74" s="2">
+      <c r="A74" s="10">
         <v>42877</v>
       </c>
       <c r="B74" s="1" t="s">
@@ -5950,7 +5948,7 @@
       </c>
     </row>
     <row r="75" spans="1:12" ht="13">
-      <c r="A75" s="2">
+      <c r="A75" s="10">
         <v>42879</v>
       </c>
       <c r="B75" s="1" t="s">
@@ -5988,7 +5986,7 @@
       </c>
     </row>
     <row r="76" spans="1:12" ht="13">
-      <c r="A76" s="2">
+      <c r="A76" s="10">
         <v>42880</v>
       </c>
       <c r="B76" s="1" t="s">
@@ -6026,7 +6024,7 @@
       </c>
     </row>
     <row r="77" spans="1:12" ht="13">
-      <c r="A77" s="2">
+      <c r="A77" s="10">
         <v>42880</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -6064,7 +6062,7 @@
       </c>
     </row>
     <row r="78" spans="1:12" ht="13">
-      <c r="A78" s="2">
+      <c r="A78" s="10">
         <v>42884</v>
       </c>
       <c r="B78" s="1" t="s">
@@ -6102,7 +6100,7 @@
       </c>
     </row>
     <row r="79" spans="1:12" ht="13">
-      <c r="A79" s="3">
+      <c r="A79" s="10">
         <v>42884</v>
       </c>
       <c r="B79" s="1" t="s">
@@ -6140,7 +6138,7 @@
       </c>
     </row>
     <row r="80" spans="1:12" ht="13">
-      <c r="A80" s="2">
+      <c r="A80" s="10">
         <v>42885</v>
       </c>
       <c r="B80" s="1" t="s">
@@ -6178,7 +6176,7 @@
       </c>
     </row>
     <row r="81" spans="1:12" ht="13">
-      <c r="A81" s="2">
+      <c r="A81" s="10">
         <v>42887</v>
       </c>
       <c r="B81" s="1" t="s">
@@ -6216,7 +6214,7 @@
       </c>
     </row>
     <row r="82" spans="1:12" ht="13">
-      <c r="A82" s="2">
+      <c r="A82" s="10">
         <v>42888</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -6254,7 +6252,7 @@
       </c>
     </row>
     <row r="83" spans="1:12" ht="13">
-      <c r="A83" s="2">
+      <c r="A83" s="10">
         <v>42888</v>
       </c>
       <c r="B83" s="1" t="s">
@@ -6292,7 +6290,7 @@
       </c>
     </row>
     <row r="84" spans="1:12" ht="13">
-      <c r="A84" s="2">
+      <c r="A84" s="10">
         <v>42894</v>
       </c>
       <c r="B84" s="1" t="s">
@@ -6330,7 +6328,7 @@
       </c>
     </row>
     <row r="85" spans="1:12" ht="13">
-      <c r="A85" s="2">
+      <c r="A85" s="10">
         <v>42895</v>
       </c>
       <c r="B85" s="1" t="s">
@@ -6368,7 +6366,7 @@
       </c>
     </row>
     <row r="86" spans="1:12" ht="13">
-      <c r="A86" s="2">
+      <c r="A86" s="10">
         <v>42898</v>
       </c>
       <c r="B86" s="1" t="s">
@@ -6406,7 +6404,7 @@
       </c>
     </row>
     <row r="87" spans="1:12" ht="13">
-      <c r="A87" s="2">
+      <c r="A87" s="10">
         <v>42900</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -6444,7 +6442,7 @@
       </c>
     </row>
     <row r="88" spans="1:12" ht="13">
-      <c r="A88" s="2">
+      <c r="A88" s="10">
         <v>42901</v>
       </c>
       <c r="B88" s="1" t="s">
@@ -6482,7 +6480,7 @@
       </c>
     </row>
     <row r="89" spans="1:12" ht="13">
-      <c r="A89" s="2">
+      <c r="A89" s="10">
         <v>42902</v>
       </c>
       <c r="B89" s="1" t="s">
@@ -6520,10 +6518,10 @@
       </c>
     </row>
     <row r="90" spans="1:12" ht="13">
-      <c r="A90" s="2">
-        <v>21957452</v>
-      </c>
-      <c r="B90" s="5" t="s">
+      <c r="A90" s="10">
+        <v>42902</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>188</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -6558,7 +6556,7 @@
       </c>
     </row>
     <row r="91" spans="1:12" ht="13">
-      <c r="A91" s="2">
+      <c r="A91" s="10">
         <v>42908</v>
       </c>
       <c r="B91" s="1" t="s">
@@ -6596,7 +6594,7 @@
       </c>
     </row>
     <row r="92" spans="1:12" ht="13">
-      <c r="A92" s="2">
+      <c r="A92" s="10">
         <v>42914</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -6634,7 +6632,7 @@
       </c>
     </row>
     <row r="93" spans="1:12" ht="13">
-      <c r="A93" s="2">
+      <c r="A93" s="10">
         <v>42914</v>
       </c>
       <c r="B93" s="1" t="s">
@@ -6672,7 +6670,7 @@
       </c>
     </row>
     <row r="94" spans="1:12" ht="13">
-      <c r="A94" s="2">
+      <c r="A94" s="10">
         <v>42915</v>
       </c>
       <c r="B94" s="1" t="s">
@@ -6710,7 +6708,7 @@
       </c>
     </row>
     <row r="95" spans="1:12" ht="13">
-      <c r="A95" s="2">
+      <c r="A95" s="10">
         <v>42916</v>
       </c>
       <c r="B95" s="1" t="s">
@@ -6748,7 +6746,7 @@
       </c>
     </row>
     <row r="96" spans="1:12" ht="13">
-      <c r="A96" s="2">
+      <c r="A96" s="10">
         <v>42919</v>
       </c>
       <c r="B96" s="1" t="s">
@@ -6786,7 +6784,7 @@
       </c>
     </row>
     <row r="97" spans="1:12" ht="13">
-      <c r="A97" s="2">
+      <c r="A97" s="10">
         <v>42919</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -6824,7 +6822,7 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="13">
-      <c r="A98" s="2">
+      <c r="A98" s="10">
         <v>42922</v>
       </c>
       <c r="B98" s="1" t="s">
@@ -6862,7 +6860,7 @@
       </c>
     </row>
     <row r="99" spans="1:12" ht="13">
-      <c r="A99" s="2">
+      <c r="A99" s="10">
         <v>42922</v>
       </c>
       <c r="B99" s="1" t="s">
@@ -6900,7 +6898,7 @@
       </c>
     </row>
     <row r="100" spans="1:12" ht="13">
-      <c r="A100" s="2">
+      <c r="A100" s="10">
         <v>42926</v>
       </c>
       <c r="B100" s="1" t="s">
@@ -6938,7 +6936,7 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="13">
-      <c r="A101" s="2">
+      <c r="A101" s="10">
         <v>42927</v>
       </c>
       <c r="B101" s="1" t="s">
@@ -6976,7 +6974,7 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="13">
-      <c r="A102" s="2">
+      <c r="A102" s="10">
         <v>42929</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -7014,7 +7012,7 @@
       </c>
     </row>
     <row r="103" spans="1:12" ht="13">
-      <c r="A103" s="2">
+      <c r="A103" s="10">
         <v>42928</v>
       </c>
       <c r="B103" s="1" t="s">
@@ -7052,7 +7050,7 @@
       </c>
     </row>
     <row r="104" spans="1:12" ht="13">
-      <c r="A104" s="2">
+      <c r="A104" s="10">
         <v>42930</v>
       </c>
       <c r="B104" s="1" t="s">
@@ -7090,7 +7088,7 @@
       </c>
     </row>
     <row r="105" spans="1:12" ht="13">
-      <c r="A105" s="2">
+      <c r="A105" s="10">
         <v>42933</v>
       </c>
       <c r="B105" s="1" t="s">
@@ -7128,7 +7126,7 @@
       </c>
     </row>
     <row r="106" spans="1:12" ht="13">
-      <c r="A106" s="2">
+      <c r="A106" s="10">
         <v>42933</v>
       </c>
       <c r="B106" s="1" t="s">
@@ -7166,7 +7164,7 @@
       </c>
     </row>
     <row r="107" spans="1:12" ht="13">
-      <c r="A107" s="2">
+      <c r="A107" s="10">
         <v>42933</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -7204,7 +7202,7 @@
       </c>
     </row>
     <row r="108" spans="1:12" ht="13">
-      <c r="A108" s="2">
+      <c r="A108" s="10">
         <v>42935</v>
       </c>
       <c r="B108" s="1" t="s">
@@ -7242,7 +7240,7 @@
       </c>
     </row>
     <row r="109" spans="1:12" ht="13">
-      <c r="A109" s="2">
+      <c r="A109" s="10">
         <v>42936</v>
       </c>
       <c r="B109" s="1" t="s">
@@ -7280,7 +7278,7 @@
       </c>
     </row>
     <row r="110" spans="1:12" ht="13">
-      <c r="A110" s="2">
+      <c r="A110" s="10">
         <v>42937</v>
       </c>
       <c r="B110" s="1" t="s">
@@ -7318,7 +7316,7 @@
       </c>
     </row>
     <row r="111" spans="1:12" ht="13">
-      <c r="A111" s="2">
+      <c r="A111" s="10">
         <v>42940</v>
       </c>
       <c r="B111" s="1" t="s">
@@ -7356,7 +7354,7 @@
       </c>
     </row>
     <row r="112" spans="1:12" ht="13">
-      <c r="A112" s="2">
+      <c r="A112" s="10">
         <v>42940</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -7394,7 +7392,7 @@
       </c>
     </row>
     <row r="113" spans="1:12" ht="13">
-      <c r="A113" s="2">
+      <c r="A113" s="10">
         <v>42942</v>
       </c>
       <c r="B113" s="1" t="s">
@@ -7432,7 +7430,7 @@
       </c>
     </row>
     <row r="114" spans="1:12" ht="13">
-      <c r="A114" s="2">
+      <c r="A114" s="10">
         <v>42943</v>
       </c>
       <c r="B114" s="1" t="s">
@@ -7470,7 +7468,7 @@
       </c>
     </row>
     <row r="115" spans="1:12" ht="13">
-      <c r="A115" s="2">
+      <c r="A115" s="10">
         <v>42944</v>
       </c>
       <c r="B115" s="1" t="s">
@@ -7508,7 +7506,7 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="13">
-      <c r="A116" s="2">
+      <c r="A116" s="10">
         <v>42948</v>
       </c>
       <c r="B116" s="1" t="s">
@@ -7546,7 +7544,7 @@
       </c>
     </row>
     <row r="117" spans="1:12" ht="13">
-      <c r="A117" s="2">
+      <c r="A117" s="10">
         <v>42957</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -7584,7 +7582,7 @@
       </c>
     </row>
     <row r="118" spans="1:12" ht="13">
-      <c r="A118" s="2">
+      <c r="A118" s="10">
         <v>42961</v>
       </c>
       <c r="B118" s="1" t="s">
@@ -7622,7 +7620,7 @@
       </c>
     </row>
     <row r="119" spans="1:12" ht="13">
-      <c r="A119" s="2">
+      <c r="A119" s="10">
         <v>42962</v>
       </c>
       <c r="B119" s="1" t="s">
@@ -7660,7 +7658,7 @@
       </c>
     </row>
     <row r="120" spans="1:12" ht="13">
-      <c r="A120" s="2">
+      <c r="A120" s="10">
         <v>42964</v>
       </c>
       <c r="B120" s="1" t="s">
@@ -7698,7 +7696,7 @@
       </c>
     </row>
     <row r="121" spans="1:12" ht="13">
-      <c r="A121" s="2">
+      <c r="A121" s="10">
         <v>42975</v>
       </c>
       <c r="B121" s="1" t="s">
@@ -7736,7 +7734,7 @@
       </c>
     </row>
     <row r="122" spans="1:12" ht="13">
-      <c r="A122" s="2">
+      <c r="A122" s="10">
         <v>42977</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -7774,7 +7772,7 @@
       </c>
     </row>
     <row r="123" spans="1:12" ht="13">
-      <c r="A123" s="2">
+      <c r="A123" s="10">
         <v>42984</v>
       </c>
       <c r="B123" s="1" t="s">
@@ -7812,7 +7810,7 @@
       </c>
     </row>
     <row r="124" spans="1:12" ht="13">
-      <c r="A124" s="2">
+      <c r="A124" s="10">
         <v>42986</v>
       </c>
       <c r="B124" s="1" t="s">
@@ -7850,7 +7848,7 @@
       </c>
     </row>
     <row r="125" spans="1:12" ht="13">
-      <c r="A125" s="2">
+      <c r="A125" s="10">
         <v>42997</v>
       </c>
       <c r="B125" s="1" t="s">
@@ -7888,7 +7886,7 @@
       </c>
     </row>
     <row r="126" spans="1:12" ht="13">
-      <c r="A126" s="2">
+      <c r="A126" s="10">
         <v>43018</v>
       </c>
       <c r="B126" s="1" t="s">
@@ -7926,7 +7924,7 @@
       </c>
     </row>
     <row r="127" spans="1:12" ht="13">
-      <c r="A127" s="2">
+      <c r="A127" s="10">
         <v>43020</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -7964,7 +7962,7 @@
       </c>
     </row>
     <row r="128" spans="1:12" ht="13">
-      <c r="A128" s="2">
+      <c r="A128" s="10">
         <v>43024</v>
       </c>
       <c r="B128" s="1" t="s">
@@ -8002,7 +8000,7 @@
       </c>
     </row>
     <row r="129" spans="1:12" ht="13">
-      <c r="A129" s="2">
+      <c r="A129" s="10">
         <v>43025</v>
       </c>
       <c r="B129" s="1" t="s">
@@ -8040,7 +8038,7 @@
       </c>
     </row>
     <row r="130" spans="1:12" ht="13">
-      <c r="A130" s="2">
+      <c r="A130" s="10">
         <v>43028</v>
       </c>
       <c r="B130" s="1" t="s">
@@ -8078,7 +8076,7 @@
       </c>
     </row>
     <row r="131" spans="1:12" ht="13">
-      <c r="A131" s="2">
+      <c r="A131" s="10">
         <v>43032</v>
       </c>
       <c r="B131" s="1" t="s">
@@ -8116,7 +8114,7 @@
       </c>
     </row>
     <row r="132" spans="1:12" ht="13">
-      <c r="A132" s="2">
+      <c r="A132" s="10">
         <v>43033</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -8154,7 +8152,7 @@
       </c>
     </row>
     <row r="133" spans="1:12" ht="13">
-      <c r="A133" s="2">
+      <c r="A133" s="10">
         <v>43035</v>
       </c>
       <c r="B133" s="1" t="s">
@@ -8192,7 +8190,7 @@
       </c>
     </row>
     <row r="134" spans="1:12" ht="13">
-      <c r="A134" s="2">
+      <c r="A134" s="10">
         <v>43039</v>
       </c>
       <c r="B134" s="1" t="s">
@@ -8230,7 +8228,7 @@
       </c>
     </row>
     <row r="135" spans="1:12" ht="13">
-      <c r="A135" s="2">
+      <c r="A135" s="10">
         <v>43047</v>
       </c>
       <c r="B135" s="1" t="s">
@@ -8268,7 +8266,7 @@
       </c>
     </row>
     <row r="136" spans="1:12" ht="13">
-      <c r="A136" s="2">
+      <c r="A136" s="10">
         <v>43052</v>
       </c>
       <c r="B136" s="1" t="s">
@@ -8306,7 +8304,7 @@
       </c>
     </row>
     <row r="137" spans="1:12" ht="13">
-      <c r="A137" s="2">
+      <c r="A137" s="10">
         <v>43052</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -8344,7 +8342,7 @@
       </c>
     </row>
     <row r="138" spans="1:12" ht="13">
-      <c r="A138" s="2">
+      <c r="A138" s="10">
         <v>43059</v>
       </c>
       <c r="B138" s="1" t="s">
@@ -8382,7 +8380,7 @@
       </c>
     </row>
     <row r="139" spans="1:12" ht="13">
-      <c r="A139" s="2">
+      <c r="A139" s="10">
         <v>43059</v>
       </c>
       <c r="B139" s="1" t="s">
@@ -8420,7 +8418,7 @@
       </c>
     </row>
     <row r="140" spans="1:12" ht="13">
-      <c r="A140" s="2">
+      <c r="A140" s="10">
         <v>43059</v>
       </c>
       <c r="B140" s="1" t="s">
@@ -8458,7 +8456,7 @@
       </c>
     </row>
     <row r="141" spans="1:12" ht="13">
-      <c r="A141" s="2">
+      <c r="A141" s="10">
         <v>43061</v>
       </c>
       <c r="B141" s="1" t="s">
@@ -8496,7 +8494,7 @@
       </c>
     </row>
     <row r="142" spans="1:12" ht="13">
-      <c r="A142" s="2">
+      <c r="A142" s="10">
         <v>43062</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -8534,7 +8532,7 @@
       </c>
     </row>
     <row r="143" spans="1:12" ht="13">
-      <c r="A143" s="2">
+      <c r="A143" s="10">
         <v>43067</v>
       </c>
       <c r="B143" s="1" t="s">
@@ -8572,7 +8570,7 @@
       </c>
     </row>
     <row r="144" spans="1:12" ht="13">
-      <c r="A144" s="2">
+      <c r="A144" s="10">
         <v>43070</v>
       </c>
       <c r="B144" s="1" t="s">
@@ -8610,7 +8608,7 @@
       </c>
     </row>
     <row r="145" spans="1:12" ht="13">
-      <c r="A145" s="2">
+      <c r="A145" s="10">
         <v>43073</v>
       </c>
       <c r="B145" s="1" t="s">
@@ -8648,7 +8646,7 @@
       </c>
     </row>
     <row r="146" spans="1:12" ht="13">
-      <c r="A146" s="2">
+      <c r="A146" s="10">
         <v>43076</v>
       </c>
       <c r="B146" s="1" t="s">
@@ -8686,7 +8684,7 @@
       </c>
     </row>
     <row r="147" spans="1:12" ht="13">
-      <c r="A147" s="2">
+      <c r="A147" s="10">
         <v>43077</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -8724,7 +8722,7 @@
       </c>
     </row>
     <row r="148" spans="1:12" ht="13">
-      <c r="A148" s="2">
+      <c r="A148" s="10">
         <v>43077</v>
       </c>
       <c r="B148" s="1" t="s">
@@ -8762,7 +8760,7 @@
       </c>
     </row>
     <row r="149" spans="1:12" ht="13">
-      <c r="A149" s="2">
+      <c r="A149" s="10">
         <v>43077</v>
       </c>
       <c r="B149" s="1" t="s">
@@ -8800,7 +8798,7 @@
       </c>
     </row>
     <row r="150" spans="1:12" ht="13">
-      <c r="A150" s="2">
+      <c r="A150" s="10">
         <v>43080</v>
       </c>
       <c r="B150" s="1" t="s">
@@ -8838,7 +8836,7 @@
       </c>
     </row>
     <row r="151" spans="1:12" ht="13">
-      <c r="A151" s="2">
+      <c r="A151" s="10">
         <v>43090</v>
       </c>
       <c r="B151" s="1" t="s">
@@ -8876,7 +8874,7 @@
       </c>
     </row>
     <row r="152" spans="1:12" ht="13">
-      <c r="A152" s="2">
+      <c r="A152" s="10">
         <v>43090</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -8914,7 +8912,7 @@
       </c>
     </row>
     <row r="153" spans="1:12" ht="13">
-      <c r="A153" s="3">
+      <c r="A153" s="10">
         <v>43091</v>
       </c>
       <c r="B153" s="1" t="s">
@@ -8952,7 +8950,7 @@
       </c>
     </row>
     <row r="154" spans="1:12" ht="13">
-      <c r="A154" s="3">
+      <c r="A154" s="10">
         <v>43109</v>
       </c>
       <c r="B154" s="1" t="s">
@@ -8990,7 +8988,7 @@
       </c>
     </row>
     <row r="155" spans="1:12" ht="13">
-      <c r="A155" s="2">
+      <c r="A155" s="10">
         <v>43117</v>
       </c>
       <c r="B155" s="1" t="s">
@@ -9028,7 +9026,7 @@
       </c>
     </row>
     <row r="156" spans="1:12" ht="13">
-      <c r="A156" s="2">
+      <c r="A156" s="10">
         <v>43117</v>
       </c>
       <c r="B156" s="1" t="s">
@@ -9066,7 +9064,7 @@
       </c>
     </row>
     <row r="157" spans="1:12" ht="13">
-      <c r="A157" s="2">
+      <c r="A157" s="10">
         <v>43118</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -9104,7 +9102,7 @@
       </c>
     </row>
     <row r="158" spans="1:12" ht="13">
-      <c r="A158" s="2">
+      <c r="A158" s="10">
         <v>43119</v>
       </c>
       <c r="B158" s="1" t="s">
@@ -9142,7 +9140,7 @@
       </c>
     </row>
     <row r="159" spans="1:12" ht="13">
-      <c r="A159" s="2">
+      <c r="A159" s="10">
         <v>43126</v>
       </c>
       <c r="B159" s="1" t="s">
@@ -9180,7 +9178,7 @@
       </c>
     </row>
     <row r="160" spans="1:12" ht="13">
-      <c r="A160" s="2">
+      <c r="A160" s="10">
         <v>43126</v>
       </c>
       <c r="B160" s="1" t="s">
@@ -9218,7 +9216,7 @@
       </c>
     </row>
     <row r="161" spans="1:12" ht="13">
-      <c r="A161" s="2">
+      <c r="A161" s="10">
         <v>43129</v>
       </c>
       <c r="B161" s="1" t="s">
@@ -9256,7 +9254,7 @@
       </c>
     </row>
     <row r="162" spans="1:12" ht="13">
-      <c r="A162" s="2">
+      <c r="A162" s="10">
         <v>43130</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -9294,7 +9292,7 @@
       </c>
     </row>
     <row r="163" spans="1:12" ht="13">
-      <c r="A163" s="2">
+      <c r="A163" s="10">
         <v>43132</v>
       </c>
       <c r="B163" s="1" t="s">
@@ -9332,7 +9330,7 @@
       </c>
     </row>
     <row r="164" spans="1:12" ht="13">
-      <c r="A164" s="2">
+      <c r="A164" s="10">
         <v>43136</v>
       </c>
       <c r="B164" s="1" t="s">
@@ -9370,7 +9368,7 @@
       </c>
     </row>
     <row r="165" spans="1:12" ht="13">
-      <c r="A165" s="2">
+      <c r="A165" s="10">
         <v>43139</v>
       </c>
       <c r="B165" s="1" t="s">
@@ -9408,7 +9406,7 @@
       </c>
     </row>
     <row r="166" spans="1:12" ht="13">
-      <c r="A166" s="2">
+      <c r="A166" s="10">
         <v>43139</v>
       </c>
       <c r="B166" s="1" t="s">
@@ -9446,7 +9444,7 @@
       </c>
     </row>
     <row r="167" spans="1:12" ht="13">
-      <c r="A167" s="2">
+      <c r="A167" s="10">
         <v>43143</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -9484,7 +9482,7 @@
       </c>
     </row>
     <row r="168" spans="1:12" ht="13">
-      <c r="A168" s="3">
+      <c r="A168" s="10">
         <v>43146</v>
       </c>
       <c r="B168" s="1" t="s">
@@ -9522,7 +9520,7 @@
       </c>
     </row>
     <row r="169" spans="1:12" ht="13">
-      <c r="A169" s="3">
+      <c r="A169" s="10">
         <v>43150</v>
       </c>
       <c r="B169" s="1" t="s">
@@ -9560,7 +9558,7 @@
       </c>
     </row>
     <row r="170" spans="1:12" ht="13">
-      <c r="A170" s="2">
+      <c r="A170" s="10">
         <v>43151</v>
       </c>
       <c r="B170" s="1" t="s">
@@ -9598,7 +9596,7 @@
       </c>
     </row>
     <row r="171" spans="1:12" ht="13">
-      <c r="A171" s="2">
+      <c r="A171" s="10">
         <v>43151</v>
       </c>
       <c r="B171" s="1" t="s">
@@ -9636,7 +9634,7 @@
       </c>
     </row>
     <row r="172" spans="1:12" ht="13">
-      <c r="A172" s="2">
+      <c r="A172" s="10">
         <v>43154</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -9674,7 +9672,7 @@
       </c>
     </row>
     <row r="173" spans="1:12" ht="13">
-      <c r="A173" s="2">
+      <c r="A173" s="10">
         <v>43157</v>
       </c>
       <c r="B173" s="1" t="s">
@@ -9712,7 +9710,7 @@
       </c>
     </row>
     <row r="174" spans="1:12" ht="13">
-      <c r="A174" s="2">
+      <c r="A174" s="10">
         <v>43161</v>
       </c>
       <c r="B174" s="1" t="s">
@@ -9750,7 +9748,7 @@
       </c>
     </row>
     <row r="175" spans="1:12" ht="13">
-      <c r="A175" s="2">
+      <c r="A175" s="10">
         <v>43164</v>
       </c>
       <c r="B175" s="1" t="s">
@@ -9788,7 +9786,7 @@
       </c>
     </row>
     <row r="176" spans="1:12" ht="13">
-      <c r="A176" s="2">
+      <c r="A176" s="10">
         <v>43164</v>
       </c>
       <c r="B176" s="1" t="s">
@@ -9826,7 +9824,7 @@
       </c>
     </row>
     <row r="177" spans="1:12" ht="13">
-      <c r="A177" s="2">
+      <c r="A177" s="10">
         <v>43165</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -9864,7 +9862,7 @@
       </c>
     </row>
     <row r="178" spans="1:12" ht="13">
-      <c r="A178" s="2">
+      <c r="A178" s="10">
         <v>43167</v>
       </c>
       <c r="B178" s="1" t="s">
@@ -9902,7 +9900,7 @@
       </c>
     </row>
     <row r="179" spans="1:12" ht="13">
-      <c r="A179" s="2">
+      <c r="A179" s="10">
         <v>43171</v>
       </c>
       <c r="B179" s="1" t="s">
@@ -9940,7 +9938,7 @@
       </c>
     </row>
     <row r="180" spans="1:12" ht="13">
-      <c r="A180" s="2">
+      <c r="A180" s="10">
         <v>43172</v>
       </c>
       <c r="B180" s="1" t="s">
@@ -9978,7 +9976,7 @@
       </c>
     </row>
     <row r="181" spans="1:12" ht="13">
-      <c r="A181" s="2">
+      <c r="A181" s="10">
         <v>43174</v>
       </c>
       <c r="B181" s="1" t="s">
@@ -10016,7 +10014,7 @@
       </c>
     </row>
     <row r="182" spans="1:12" ht="13">
-      <c r="A182" s="2">
+      <c r="A182" s="10">
         <v>43178</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -10054,7 +10052,7 @@
       </c>
     </row>
     <row r="183" spans="1:12" ht="13">
-      <c r="A183" s="2">
+      <c r="A183" s="10">
         <v>43186</v>
       </c>
       <c r="B183" s="1" t="s">
@@ -10092,7 +10090,7 @@
       </c>
     </row>
     <row r="184" spans="1:12" ht="13">
-      <c r="A184" s="2">
+      <c r="A184" s="10">
         <v>43187</v>
       </c>
       <c r="B184" s="1" t="s">
@@ -10130,7 +10128,7 @@
       </c>
     </row>
     <row r="185" spans="1:12" ht="13">
-      <c r="A185" s="2">
+      <c r="A185" s="10">
         <v>43188</v>
       </c>
       <c r="B185" s="1" t="s">
@@ -10168,7 +10166,7 @@
       </c>
     </row>
     <row r="186" spans="1:12" ht="13">
-      <c r="A186" s="2">
+      <c r="A186" s="10">
         <v>43193</v>
       </c>
       <c r="B186" s="1" t="s">
@@ -10206,7 +10204,7 @@
       </c>
     </row>
     <row r="187" spans="1:12" ht="13">
-      <c r="A187" s="2">
+      <c r="A187" s="10">
         <v>43194</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -10244,7 +10242,7 @@
       </c>
     </row>
     <row r="188" spans="1:12" ht="13">
-      <c r="A188" s="2">
+      <c r="A188" s="10">
         <v>43194</v>
       </c>
       <c r="B188" s="1" t="s">
@@ -10282,7 +10280,7 @@
       </c>
     </row>
     <row r="189" spans="1:12" ht="13">
-      <c r="A189" s="2">
+      <c r="A189" s="10">
         <v>43196</v>
       </c>
       <c r="B189" s="1" t="s">
@@ -10320,7 +10318,7 @@
       </c>
     </row>
     <row r="190" spans="1:12" ht="13">
-      <c r="A190" s="2">
+      <c r="A190" s="10">
         <v>43198</v>
       </c>
       <c r="B190" s="1" t="s">
@@ -10358,7 +10356,7 @@
       </c>
     </row>
     <row r="191" spans="1:12" ht="13">
-      <c r="A191" s="2">
+      <c r="A191" s="10">
         <v>43199</v>
       </c>
       <c r="B191" s="1" t="s">
@@ -10396,7 +10394,7 @@
       </c>
     </row>
     <row r="192" spans="1:12" ht="13">
-      <c r="A192" s="2">
+      <c r="A192" s="10">
         <v>43199</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -10434,7 +10432,7 @@
       </c>
     </row>
     <row r="193" spans="1:12" ht="13">
-      <c r="A193" s="2">
+      <c r="A193" s="10">
         <v>43200</v>
       </c>
       <c r="B193" s="1" t="s">
@@ -10472,7 +10470,7 @@
       </c>
     </row>
     <row r="194" spans="1:12" ht="13">
-      <c r="A194" s="2">
+      <c r="A194" s="10">
         <v>43200</v>
       </c>
       <c r="B194" s="1" t="s">
@@ -10510,7 +10508,7 @@
       </c>
     </row>
     <row r="195" spans="1:12" ht="13">
-      <c r="A195" s="2">
+      <c r="A195" s="10">
         <v>43201</v>
       </c>
       <c r="B195" s="1" t="s">
@@ -10548,7 +10546,7 @@
       </c>
     </row>
     <row r="196" spans="1:12" ht="13">
-      <c r="A196" s="2">
+      <c r="A196" s="10">
         <v>43202</v>
       </c>
       <c r="B196" s="1" t="s">
@@ -10586,7 +10584,7 @@
       </c>
     </row>
     <row r="197" spans="1:12" ht="13">
-      <c r="A197" s="2">
+      <c r="A197" s="10">
         <v>43202</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -10624,7 +10622,7 @@
       </c>
     </row>
     <row r="198" spans="1:12" ht="13">
-      <c r="A198" s="2">
+      <c r="A198" s="10">
         <v>43202</v>
       </c>
       <c r="B198" s="1" t="s">
@@ -10662,7 +10660,7 @@
       </c>
     </row>
     <row r="199" spans="1:12" ht="13">
-      <c r="A199" s="2">
+      <c r="A199" s="10">
         <v>43203</v>
       </c>
       <c r="B199" s="1" t="s">
@@ -10700,7 +10698,7 @@
       </c>
     </row>
     <row r="200" spans="1:12" ht="13">
-      <c r="A200" s="2">
+      <c r="A200" s="10">
         <v>43203</v>
       </c>
       <c r="B200" s="1" t="s">
@@ -10738,7 +10736,7 @@
       </c>
     </row>
     <row r="201" spans="1:12" ht="13">
-      <c r="A201" s="2">
+      <c r="A201" s="10">
         <v>43203</v>
       </c>
       <c r="B201" s="1" t="s">
@@ -10776,7 +10774,7 @@
       </c>
     </row>
     <row r="202" spans="1:12" ht="13">
-      <c r="A202" s="2">
+      <c r="A202" s="10">
         <v>43209</v>
       </c>
       <c r="B202" s="1" t="s">
@@ -10814,7 +10812,7 @@
       </c>
     </row>
     <row r="203" spans="1:12" ht="13">
-      <c r="A203" s="2">
+      <c r="A203" s="10">
         <v>43210</v>
       </c>
       <c r="B203" s="1" t="s">
@@ -10852,7 +10850,7 @@
       </c>
     </row>
     <row r="204" spans="1:12" ht="13">
-      <c r="A204" s="2">
+      <c r="A204" s="10">
         <v>43213</v>
       </c>
       <c r="B204" s="1" t="s">
@@ -10890,7 +10888,7 @@
       </c>
     </row>
     <row r="205" spans="1:12" ht="13">
-      <c r="A205" s="2">
+      <c r="A205" s="10">
         <v>43214</v>
       </c>
       <c r="B205" s="1" t="s">
@@ -10928,7 +10926,7 @@
       </c>
     </row>
     <row r="206" spans="1:12" ht="13">
-      <c r="A206" s="2">
+      <c r="A206" s="10">
         <v>43216</v>
       </c>
       <c r="B206" s="1" t="s">
@@ -10966,7 +10964,7 @@
       </c>
     </row>
     <row r="207" spans="1:12" ht="13">
-      <c r="A207" s="2">
+      <c r="A207" s="10">
         <v>43217</v>
       </c>
       <c r="B207" s="1" t="s">
@@ -11004,7 +11002,7 @@
       </c>
     </row>
     <row r="208" spans="1:12" ht="13">
-      <c r="A208" s="2">
+      <c r="A208" s="10">
         <v>43224</v>
       </c>
       <c r="B208" s="1" t="s">
@@ -11042,7 +11040,7 @@
       </c>
     </row>
     <row r="209" spans="1:12" ht="13">
-      <c r="A209" s="2">
+      <c r="A209" s="10">
         <v>43227</v>
       </c>
       <c r="B209" s="1" t="s">
@@ -11080,7 +11078,7 @@
       </c>
     </row>
     <row r="210" spans="1:12" ht="13">
-      <c r="A210" s="2">
+      <c r="A210" s="10">
         <v>43235</v>
       </c>
       <c r="B210" s="1" t="s">
@@ -11118,7 +11116,7 @@
       </c>
     </row>
     <row r="211" spans="1:12" ht="13">
-      <c r="A211" s="2">
+      <c r="A211" s="10">
         <v>43235</v>
       </c>
       <c r="B211" s="1" t="s">
@@ -11156,7 +11154,7 @@
       </c>
     </row>
     <row r="212" spans="1:12" ht="13">
-      <c r="A212" s="2">
+      <c r="A212" s="10">
         <v>43245</v>
       </c>
       <c r="B212" s="1" t="s">
@@ -11194,7 +11192,7 @@
       </c>
     </row>
     <row r="213" spans="1:12" ht="13">
-      <c r="A213" s="2">
+      <c r="A213" s="10">
         <v>43248</v>
       </c>
       <c r="B213" s="1" t="s">
@@ -11232,13 +11230,13 @@
       </c>
     </row>
     <row r="214" spans="1:12" ht="13">
-      <c r="A214" s="2">
+      <c r="A214" s="10">
         <v>43249</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>433</v>
       </c>
-      <c r="C214" s="6" t="s">
+      <c r="C214" s="4" t="s">
         <v>434</v>
       </c>
       <c r="D214" s="1">
@@ -11270,7 +11268,7 @@
       </c>
     </row>
     <row r="215" spans="1:12" ht="13">
-      <c r="A215" s="2">
+      <c r="A215" s="10">
         <v>43252</v>
       </c>
       <c r="B215" s="1" t="s">
@@ -11308,7 +11306,7 @@
       </c>
     </row>
     <row r="216" spans="1:12" ht="13">
-      <c r="A216" s="2">
+      <c r="A216" s="10">
         <v>43252</v>
       </c>
       <c r="B216" s="1" t="s">
@@ -11346,7 +11344,7 @@
       </c>
     </row>
     <row r="217" spans="1:12" ht="13">
-      <c r="A217" s="2">
+      <c r="A217" s="10">
         <v>43255</v>
       </c>
       <c r="B217" s="1" t="s">
@@ -11384,7 +11382,7 @@
       </c>
     </row>
     <row r="218" spans="1:12" ht="13">
-      <c r="A218" s="2">
+      <c r="A218" s="10">
         <v>43255</v>
       </c>
       <c r="B218" s="1" t="s">
@@ -11422,7 +11420,7 @@
       </c>
     </row>
     <row r="219" spans="1:12" ht="13">
-      <c r="A219" s="2">
+      <c r="A219" s="10">
         <v>43256</v>
       </c>
       <c r="B219" s="1" t="s">
@@ -11460,7 +11458,7 @@
       </c>
     </row>
     <row r="220" spans="1:12" ht="13">
-      <c r="A220" s="2">
+      <c r="A220" s="10">
         <v>43256</v>
       </c>
       <c r="B220" s="1" t="s">
@@ -11498,7 +11496,7 @@
       </c>
     </row>
     <row r="221" spans="1:12" ht="13">
-      <c r="A221" s="2">
+      <c r="A221" s="10">
         <v>43258</v>
       </c>
       <c r="B221" s="1" t="s">
@@ -11536,7 +11534,7 @@
       </c>
     </row>
     <row r="222" spans="1:12" ht="13">
-      <c r="A222" s="2">
+      <c r="A222" s="10">
         <v>43259</v>
       </c>
       <c r="B222" s="1" t="s">
@@ -11574,7 +11572,7 @@
       </c>
     </row>
     <row r="223" spans="1:12" ht="13">
-      <c r="A223" s="2">
+      <c r="A223" s="10">
         <v>43265</v>
       </c>
       <c r="B223" s="1" t="s">
@@ -11612,7 +11610,7 @@
       </c>
     </row>
     <row r="224" spans="1:12" ht="13">
-      <c r="A224" s="2">
+      <c r="A224" s="10">
         <v>43269</v>
       </c>
       <c r="B224" s="1" t="s">
@@ -11650,7 +11648,7 @@
       </c>
     </row>
     <row r="225" spans="1:12" ht="13">
-      <c r="A225" s="2">
+      <c r="A225" s="10">
         <v>43270</v>
       </c>
       <c r="B225" s="1" t="s">
@@ -11688,7 +11686,7 @@
       </c>
     </row>
     <row r="226" spans="1:12" ht="13">
-      <c r="A226" s="2">
+      <c r="A226" s="10">
         <v>43270</v>
       </c>
       <c r="B226" s="1" t="s">
@@ -11726,7 +11724,7 @@
       </c>
     </row>
     <row r="227" spans="1:12" ht="13">
-      <c r="A227" s="2">
+      <c r="A227" s="10">
         <v>43270</v>
       </c>
       <c r="B227" s="1" t="s">
@@ -11764,7 +11762,7 @@
       </c>
     </row>
     <row r="228" spans="1:12" ht="13">
-      <c r="A228" s="2">
+      <c r="A228" s="10">
         <v>43272</v>
       </c>
       <c r="B228" s="1" t="s">
@@ -11802,7 +11800,7 @@
       </c>
     </row>
     <row r="229" spans="1:12" ht="13">
-      <c r="A229" s="2">
+      <c r="A229" s="10">
         <v>43272</v>
       </c>
       <c r="B229" s="1" t="s">
@@ -11840,7 +11838,7 @@
       </c>
     </row>
     <row r="230" spans="1:12" ht="13">
-      <c r="A230" s="2">
+      <c r="A230" s="10">
         <v>43273</v>
       </c>
       <c r="B230" s="1" t="s">
@@ -11878,7 +11876,7 @@
       </c>
     </row>
     <row r="231" spans="1:12" ht="13">
-      <c r="A231" s="3">
+      <c r="A231" s="10">
         <v>43273</v>
       </c>
       <c r="B231" s="1" t="s">
@@ -11916,7 +11914,7 @@
       </c>
     </row>
     <row r="232" spans="1:12" ht="13">
-      <c r="A232" s="2">
+      <c r="A232" s="10">
         <v>43277</v>
       </c>
       <c r="B232" s="1" t="s">
@@ -11954,7 +11952,7 @@
       </c>
     </row>
     <row r="233" spans="1:12" ht="13">
-      <c r="A233" s="2">
+      <c r="A233" s="10">
         <v>43277</v>
       </c>
       <c r="B233" s="1" t="s">
@@ -11992,7 +11990,7 @@
       </c>
     </row>
     <row r="234" spans="1:12" ht="13">
-      <c r="A234" s="2">
+      <c r="A234" s="10">
         <v>43278</v>
       </c>
       <c r="B234" s="1" t="s">
@@ -12030,7 +12028,7 @@
       </c>
     </row>
     <row r="235" spans="1:12" ht="13">
-      <c r="A235" s="2">
+      <c r="A235" s="10">
         <v>43294</v>
       </c>
       <c r="B235" s="1" t="s">
@@ -12068,7 +12066,7 @@
       </c>
     </row>
     <row r="236" spans="1:12" ht="13">
-      <c r="A236" s="2">
+      <c r="A236" s="10">
         <v>43299</v>
       </c>
       <c r="B236" s="1" t="s">
@@ -12106,7 +12104,7 @@
       </c>
     </row>
     <row r="237" spans="1:12" ht="13">
-      <c r="A237" s="2">
+      <c r="A237" s="10">
         <v>43299</v>
       </c>
       <c r="B237" s="1" t="s">
@@ -12144,7 +12142,7 @@
       </c>
     </row>
     <row r="238" spans="1:12" ht="13">
-      <c r="A238" s="2">
+      <c r="A238" s="10">
         <v>43300</v>
       </c>
       <c r="B238" s="1" t="s">
@@ -12182,7 +12180,7 @@
       </c>
     </row>
     <row r="239" spans="1:12" ht="13">
-      <c r="A239" s="2">
+      <c r="A239" s="10">
         <v>43301</v>
       </c>
       <c r="B239" s="1" t="s">
@@ -12220,7 +12218,7 @@
       </c>
     </row>
     <row r="240" spans="1:12" ht="13">
-      <c r="A240" s="2">
+      <c r="A240" s="10">
         <v>43304</v>
       </c>
       <c r="B240" s="1" t="s">
@@ -12258,7 +12256,7 @@
       </c>
     </row>
     <row r="241" spans="1:12" ht="13">
-      <c r="A241" s="2">
+      <c r="A241" s="10">
         <v>43308</v>
       </c>
       <c r="B241" s="1" t="s">
@@ -12296,7 +12294,7 @@
       </c>
     </row>
     <row r="242" spans="1:12" ht="13">
-      <c r="A242" s="2">
+      <c r="A242" s="10">
         <v>43311</v>
       </c>
       <c r="B242" s="1" t="s">
@@ -12334,7 +12332,7 @@
       </c>
     </row>
     <row r="243" spans="1:12" ht="13">
-      <c r="A243" s="2">
+      <c r="A243" s="10">
         <v>43325</v>
       </c>
       <c r="B243" s="1" t="s">
@@ -12372,7 +12370,7 @@
       </c>
     </row>
     <row r="244" spans="1:12" ht="13">
-      <c r="A244" s="2">
+      <c r="A244" s="10">
         <v>43326</v>
       </c>
       <c r="B244" s="1" t="s">
@@ -12410,7 +12408,7 @@
       </c>
     </row>
     <row r="245" spans="1:12" ht="13">
-      <c r="A245" s="2">
+      <c r="A245" s="10">
         <v>43341</v>
       </c>
       <c r="B245" s="1" t="s">
@@ -12448,7 +12446,7 @@
       </c>
     </row>
     <row r="246" spans="1:12" ht="13">
-      <c r="A246" s="2">
+      <c r="A246" s="10">
         <v>43342</v>
       </c>
       <c r="B246" s="1" t="s">
@@ -12486,7 +12484,7 @@
       </c>
     </row>
     <row r="247" spans="1:12" ht="13">
-      <c r="A247" s="2">
+      <c r="A247" s="10">
         <v>43347</v>
       </c>
       <c r="B247" s="1" t="s">
@@ -12524,7 +12522,7 @@
       </c>
     </row>
     <row r="248" spans="1:12" ht="13">
-      <c r="A248" s="2">
+      <c r="A248" s="10">
         <v>43349</v>
       </c>
       <c r="B248" s="1" t="s">
@@ -12562,7 +12560,7 @@
       </c>
     </row>
     <row r="249" spans="1:12" ht="13">
-      <c r="A249" s="2">
+      <c r="A249" s="10">
         <v>43353</v>
       </c>
       <c r="B249" s="1" t="s">
@@ -12600,7 +12598,7 @@
       </c>
     </row>
     <row r="250" spans="1:12" ht="13">
-      <c r="A250" s="2">
+      <c r="A250" s="10">
         <v>43353</v>
       </c>
       <c r="B250" s="1" t="s">
@@ -12638,7 +12636,7 @@
       </c>
     </row>
     <row r="251" spans="1:12" ht="13">
-      <c r="A251" s="2">
+      <c r="A251" s="10">
         <v>43354</v>
       </c>
       <c r="B251" s="1" t="s">
@@ -12676,7 +12674,7 @@
       </c>
     </row>
     <row r="252" spans="1:12" ht="13">
-      <c r="A252" s="2">
+      <c r="A252" s="10">
         <v>43355</v>
       </c>
       <c r="B252" s="1" t="s">
@@ -12714,7 +12712,7 @@
       </c>
     </row>
     <row r="253" spans="1:12" ht="13">
-      <c r="A253" s="2">
+      <c r="A253" s="10">
         <v>43356</v>
       </c>
       <c r="B253" s="1" t="s">
@@ -12752,7 +12750,7 @@
       </c>
     </row>
     <row r="254" spans="1:12" ht="13">
-      <c r="A254" s="2">
+      <c r="A254" s="10">
         <v>43356</v>
       </c>
       <c r="B254" s="1" t="s">
@@ -12790,7 +12788,7 @@
       </c>
     </row>
     <row r="255" spans="1:12" ht="13">
-      <c r="A255" s="2">
+      <c r="A255" s="10">
         <v>43357</v>
       </c>
       <c r="B255" s="1" t="s">
@@ -12828,7 +12826,7 @@
       </c>
     </row>
     <row r="256" spans="1:12" ht="13">
-      <c r="A256" s="2">
+      <c r="A256" s="10">
         <v>43357</v>
       </c>
       <c r="B256" s="1" t="s">
@@ -12866,7 +12864,7 @@
       </c>
     </row>
     <row r="257" spans="1:12" ht="13">
-      <c r="A257" s="2">
+      <c r="A257" s="10">
         <v>43362</v>
       </c>
       <c r="B257" s="1" t="s">
@@ -12904,7 +12902,7 @@
       </c>
     </row>
     <row r="258" spans="1:12" ht="13">
-      <c r="A258" s="2">
+      <c r="A258" s="10">
         <v>43362</v>
       </c>
       <c r="B258" s="1" t="s">
@@ -12942,7 +12940,7 @@
       </c>
     </row>
     <row r="259" spans="1:12" ht="13">
-      <c r="A259" s="2">
+      <c r="A259" s="10">
         <v>43362</v>
       </c>
       <c r="B259" s="1" t="s">
@@ -12980,7 +12978,7 @@
       </c>
     </row>
     <row r="260" spans="1:12" ht="13">
-      <c r="A260" s="2">
+      <c r="A260" s="10">
         <v>43362</v>
       </c>
       <c r="B260" s="1" t="s">
@@ -13018,7 +13016,7 @@
       </c>
     </row>
     <row r="261" spans="1:12" ht="13">
-      <c r="A261" s="2">
+      <c r="A261" s="10">
         <v>43364</v>
       </c>
       <c r="B261" s="1" t="s">
@@ -13056,7 +13054,7 @@
       </c>
     </row>
     <row r="262" spans="1:12" ht="13">
-      <c r="A262" s="2">
+      <c r="A262" s="10">
         <v>43367</v>
       </c>
       <c r="B262" s="1" t="s">
@@ -13094,7 +13092,7 @@
       </c>
     </row>
     <row r="263" spans="1:12" ht="13">
-      <c r="A263" s="2">
+      <c r="A263" s="10">
         <v>43374</v>
       </c>
       <c r="B263" s="1" t="s">
@@ -13132,7 +13130,7 @@
       </c>
     </row>
     <row r="264" spans="1:12" ht="13">
-      <c r="A264" s="2">
+      <c r="A264" s="10">
         <v>43374</v>
       </c>
       <c r="B264" s="1" t="s">
@@ -13170,7 +13168,7 @@
       </c>
     </row>
     <row r="265" spans="1:12" ht="13">
-      <c r="A265" s="2">
+      <c r="A265" s="10">
         <v>43375</v>
       </c>
       <c r="B265" s="1" t="s">
@@ -13208,7 +13206,7 @@
       </c>
     </row>
     <row r="266" spans="1:12" ht="13">
-      <c r="A266" s="2">
+      <c r="A266" s="10">
         <v>43378</v>
       </c>
       <c r="B266" s="1" t="s">
@@ -13246,7 +13244,7 @@
       </c>
     </row>
     <row r="267" spans="1:12" ht="13">
-      <c r="A267" s="2">
+      <c r="A267" s="10">
         <v>43378</v>
       </c>
       <c r="B267" s="1" t="s">
@@ -13284,7 +13282,7 @@
       </c>
     </row>
     <row r="268" spans="1:12" ht="13">
-      <c r="A268" s="2">
+      <c r="A268" s="10">
         <v>43381</v>
       </c>
       <c r="B268" s="1" t="s">
@@ -13322,7 +13320,7 @@
       </c>
     </row>
     <row r="269" spans="1:12" ht="13">
-      <c r="A269" s="2">
+      <c r="A269" s="10">
         <v>43381</v>
       </c>
       <c r="B269" s="1" t="s">
@@ -13360,7 +13358,7 @@
       </c>
     </row>
     <row r="270" spans="1:12" ht="13">
-      <c r="A270" s="2">
+      <c r="A270" s="10">
         <v>43382</v>
       </c>
       <c r="B270" s="1" t="s">
@@ -13398,7 +13396,7 @@
       </c>
     </row>
     <row r="271" spans="1:12" ht="13">
-      <c r="A271" s="2">
+      <c r="A271" s="10">
         <v>43383</v>
       </c>
       <c r="B271" s="1" t="s">
@@ -13436,7 +13434,7 @@
       </c>
     </row>
     <row r="272" spans="1:12" ht="13">
-      <c r="A272" s="2">
+      <c r="A272" s="10">
         <v>43384</v>
       </c>
       <c r="B272" s="1" t="s">
@@ -13474,7 +13472,7 @@
       </c>
     </row>
     <row r="273" spans="1:12" ht="13">
-      <c r="A273" s="2">
+      <c r="A273" s="10">
         <v>43385</v>
       </c>
       <c r="B273" s="1" t="s">
@@ -13512,7 +13510,7 @@
       </c>
     </row>
     <row r="274" spans="1:12" ht="13">
-      <c r="A274" s="2">
+      <c r="A274" s="10">
         <v>43385</v>
       </c>
       <c r="B274" s="1" t="s">
@@ -13550,7 +13548,7 @@
       </c>
     </row>
     <row r="275" spans="1:12" ht="13">
-      <c r="A275" s="2">
+      <c r="A275" s="10">
         <v>43385</v>
       </c>
       <c r="B275" s="1" t="s">
@@ -13588,7 +13586,7 @@
       </c>
     </row>
     <row r="276" spans="1:12" ht="13">
-      <c r="A276" s="2">
+      <c r="A276" s="10">
         <v>43385</v>
       </c>
       <c r="B276" s="1" t="s">
@@ -13626,7 +13624,7 @@
       </c>
     </row>
     <row r="277" spans="1:12" ht="13">
-      <c r="A277" s="2">
+      <c r="A277" s="10">
         <v>43389</v>
       </c>
       <c r="B277" s="1" t="s">
@@ -13664,7 +13662,7 @@
       </c>
     </row>
     <row r="278" spans="1:12" ht="13">
-      <c r="A278" s="2">
+      <c r="A278" s="10">
         <v>43390</v>
       </c>
       <c r="B278" s="1" t="s">
@@ -13702,7 +13700,7 @@
       </c>
     </row>
     <row r="279" spans="1:12" ht="13">
-      <c r="A279" s="2">
+      <c r="A279" s="10">
         <v>43391</v>
       </c>
       <c r="B279" s="1" t="s">
@@ -13740,7 +13738,7 @@
       </c>
     </row>
     <row r="280" spans="1:12" ht="13">
-      <c r="A280" s="2">
+      <c r="A280" s="10">
         <v>43396</v>
       </c>
       <c r="B280" s="1" t="s">
@@ -13778,7 +13776,7 @@
       </c>
     </row>
     <row r="281" spans="1:12" ht="13">
-      <c r="A281" s="2">
+      <c r="A281" s="10">
         <v>43397</v>
       </c>
       <c r="B281" s="1" t="s">
@@ -13816,7 +13814,7 @@
       </c>
     </row>
     <row r="282" spans="1:12" ht="13">
-      <c r="A282" s="2">
+      <c r="A282" s="10">
         <v>43397</v>
       </c>
       <c r="B282" s="1" t="s">
@@ -13854,7 +13852,7 @@
       </c>
     </row>
     <row r="283" spans="1:12" ht="13">
-      <c r="A283" s="2">
+      <c r="A283" s="10">
         <v>43398</v>
       </c>
       <c r="B283" s="1" t="s">
@@ -13892,7 +13890,7 @@
       </c>
     </row>
     <row r="284" spans="1:12" ht="13">
-      <c r="A284" s="2">
+      <c r="A284" s="10">
         <v>43399</v>
       </c>
       <c r="B284" s="1" t="s">
@@ -13930,7 +13928,7 @@
       </c>
     </row>
     <row r="285" spans="1:12" ht="13">
-      <c r="A285" s="2">
+      <c r="A285" s="10">
         <v>43402</v>
       </c>
       <c r="B285" s="1" t="s">
@@ -13968,7 +13966,7 @@
       </c>
     </row>
     <row r="286" spans="1:12" ht="13">
-      <c r="A286" s="2">
+      <c r="A286" s="10">
         <v>43402</v>
       </c>
       <c r="B286" s="1" t="s">
@@ -14006,7 +14004,7 @@
       </c>
     </row>
     <row r="287" spans="1:12" ht="13">
-      <c r="A287" s="2">
+      <c r="A287" s="10">
         <v>43409</v>
       </c>
       <c r="B287" s="1" t="s">
@@ -14044,7 +14042,7 @@
       </c>
     </row>
     <row r="288" spans="1:12" ht="13">
-      <c r="A288" s="2">
+      <c r="A288" s="10">
         <v>43409</v>
       </c>
       <c r="B288" s="1" t="s">
@@ -14082,7 +14080,7 @@
       </c>
     </row>
     <row r="289" spans="1:12" ht="13">
-      <c r="A289" s="2">
+      <c r="A289" s="10">
         <v>43409</v>
       </c>
       <c r="B289" s="1" t="s">
@@ -14120,7 +14118,7 @@
       </c>
     </row>
     <row r="290" spans="1:12" ht="13">
-      <c r="A290" s="2">
+      <c r="A290" s="10">
         <v>43410</v>
       </c>
       <c r="B290" s="1" t="s">
@@ -14158,7 +14156,7 @@
       </c>
     </row>
     <row r="291" spans="1:12" ht="13">
-      <c r="A291" s="2">
+      <c r="A291" s="10">
         <v>43412</v>
       </c>
       <c r="B291" s="1" t="s">
@@ -14196,7 +14194,7 @@
       </c>
     </row>
     <row r="292" spans="1:12" ht="13">
-      <c r="A292" s="2">
+      <c r="A292" s="10">
         <v>43412</v>
       </c>
       <c r="B292" s="1" t="s">
@@ -14234,7 +14232,7 @@
       </c>
     </row>
     <row r="293" spans="1:12" ht="13">
-      <c r="A293" s="2">
+      <c r="A293" s="10">
         <v>43412</v>
       </c>
       <c r="B293" s="1" t="s">
@@ -14272,7 +14270,7 @@
       </c>
     </row>
     <row r="294" spans="1:12" ht="13">
-      <c r="A294" s="2">
+      <c r="A294" s="10">
         <v>43412</v>
       </c>
       <c r="B294" s="1" t="s">
@@ -14310,7 +14308,7 @@
       </c>
     </row>
     <row r="295" spans="1:12" ht="13">
-      <c r="A295" s="2">
+      <c r="A295" s="10">
         <v>43413</v>
       </c>
       <c r="B295" s="1" t="s">
@@ -14348,7 +14346,7 @@
       </c>
     </row>
     <row r="296" spans="1:12" ht="13">
-      <c r="A296" s="2">
+      <c r="A296" s="10">
         <v>43417</v>
       </c>
       <c r="B296" s="1" t="s">
@@ -14386,7 +14384,7 @@
       </c>
     </row>
     <row r="297" spans="1:12" ht="13">
-      <c r="A297" s="2">
+      <c r="A297" s="10">
         <v>43418</v>
       </c>
       <c r="B297" s="1" t="s">
@@ -14424,7 +14422,7 @@
       </c>
     </row>
     <row r="298" spans="1:12" ht="13">
-      <c r="A298" s="2">
+      <c r="A298" s="10">
         <v>43419</v>
       </c>
       <c r="B298" s="1" t="s">
@@ -14462,7 +14460,7 @@
       </c>
     </row>
     <row r="299" spans="1:12" ht="13">
-      <c r="A299" s="2">
+      <c r="A299" s="10">
         <v>43423</v>
       </c>
       <c r="B299" s="1" t="s">
@@ -14500,7 +14498,7 @@
       </c>
     </row>
     <row r="300" spans="1:12" ht="13">
-      <c r="A300" s="2">
+      <c r="A300" s="10">
         <v>43423</v>
       </c>
       <c r="B300" s="1" t="s">
@@ -14538,7 +14536,7 @@
       </c>
     </row>
     <row r="301" spans="1:12" ht="13">
-      <c r="A301" s="2">
+      <c r="A301" s="10">
         <v>43426</v>
       </c>
       <c r="B301" s="1" t="s">
@@ -14576,7 +14574,7 @@
       </c>
     </row>
     <row r="302" spans="1:12" ht="13">
-      <c r="A302" s="2">
+      <c r="A302" s="10">
         <v>43426</v>
       </c>
       <c r="B302" s="1" t="s">
@@ -14614,7 +14612,7 @@
       </c>
     </row>
     <row r="303" spans="1:12" ht="13">
-      <c r="A303" s="2">
+      <c r="A303" s="10">
         <v>43427</v>
       </c>
       <c r="B303" s="1" t="s">
@@ -14652,7 +14650,7 @@
       </c>
     </row>
     <row r="304" spans="1:12" ht="13">
-      <c r="A304" s="2">
+      <c r="A304" s="10">
         <v>43427</v>
       </c>
       <c r="B304" s="1" t="s">
@@ -14690,7 +14688,7 @@
       </c>
     </row>
     <row r="305" spans="1:12" ht="13">
-      <c r="A305" s="2">
+      <c r="A305" s="10">
         <v>43427</v>
       </c>
       <c r="B305" s="1" t="s">
@@ -14728,7 +14726,7 @@
       </c>
     </row>
     <row r="306" spans="1:12" ht="13">
-      <c r="A306" s="2">
+      <c r="A306" s="10">
         <v>43430</v>
       </c>
       <c r="B306" s="1" t="s">
@@ -14766,7 +14764,7 @@
       </c>
     </row>
     <row r="307" spans="1:12" ht="13">
-      <c r="A307" s="2">
+      <c r="A307" s="10">
         <v>43430</v>
       </c>
       <c r="B307" s="1" t="s">
@@ -14804,7 +14802,7 @@
       </c>
     </row>
     <row r="308" spans="1:12" ht="13">
-      <c r="A308" s="2">
+      <c r="A308" s="10">
         <v>43430</v>
       </c>
       <c r="B308" s="1" t="s">
@@ -14842,7 +14840,7 @@
       </c>
     </row>
     <row r="309" spans="1:12" ht="13">
-      <c r="A309" s="2">
+      <c r="A309" s="10">
         <v>43433</v>
       </c>
       <c r="B309" s="1" t="s">
@@ -14880,7 +14878,7 @@
       </c>
     </row>
     <row r="310" spans="1:12" ht="13">
-      <c r="A310" s="2">
+      <c r="A310" s="10">
         <v>43434</v>
       </c>
       <c r="B310" s="1" t="s">
@@ -14918,7 +14916,7 @@
       </c>
     </row>
     <row r="311" spans="1:12" ht="13">
-      <c r="A311" s="2">
+      <c r="A311" s="10">
         <v>43437</v>
       </c>
       <c r="B311" s="1" t="s">
@@ -14956,7 +14954,7 @@
       </c>
     </row>
     <row r="312" spans="1:12" ht="13">
-      <c r="A312" s="2">
+      <c r="A312" s="10">
         <v>43438</v>
       </c>
       <c r="B312" s="1" t="s">
@@ -14994,7 +14992,7 @@
       </c>
     </row>
     <row r="313" spans="1:12" ht="13">
-      <c r="A313" s="2">
+      <c r="A313" s="10">
         <v>43438</v>
       </c>
       <c r="B313" s="1" t="s">
@@ -15032,7 +15030,7 @@
       </c>
     </row>
     <row r="314" spans="1:12" ht="13">
-      <c r="A314" s="2">
+      <c r="A314" s="10">
         <v>43438</v>
       </c>
       <c r="B314" s="1" t="s">
@@ -15070,7 +15068,7 @@
       </c>
     </row>
     <row r="315" spans="1:12" ht="13">
-      <c r="A315" s="2">
+      <c r="A315" s="10">
         <v>43438</v>
       </c>
       <c r="B315" s="1" t="s">
@@ -15108,7 +15106,7 @@
       </c>
     </row>
     <row r="316" spans="1:12" ht="13">
-      <c r="A316" s="2">
+      <c r="A316" s="10">
         <v>43439</v>
       </c>
       <c r="B316" s="1" t="s">
@@ -15146,7 +15144,7 @@
       </c>
     </row>
     <row r="317" spans="1:12" ht="13">
-      <c r="A317" s="2">
+      <c r="A317" s="10">
         <v>43440</v>
       </c>
       <c r="B317" s="1" t="s">
@@ -15184,7 +15182,7 @@
       </c>
     </row>
     <row r="318" spans="1:12" ht="13">
-      <c r="A318" s="3">
+      <c r="A318" s="10">
         <v>43440</v>
       </c>
       <c r="B318" s="1" t="s">
@@ -15222,7 +15220,7 @@
       </c>
     </row>
     <row r="319" spans="1:12" ht="13">
-      <c r="A319" s="3">
+      <c r="A319" s="10">
         <v>43444</v>
       </c>
       <c r="B319" s="1" t="s">
@@ -15260,7 +15258,7 @@
       </c>
     </row>
     <row r="320" spans="1:12" ht="13">
-      <c r="A320" s="3">
+      <c r="A320" s="10">
         <v>43445</v>
       </c>
       <c r="B320" s="1" t="s">
@@ -15298,7 +15296,7 @@
       </c>
     </row>
     <row r="321" spans="1:12" ht="13">
-      <c r="A321" s="2">
+      <c r="A321" s="10">
         <v>43446</v>
       </c>
       <c r="B321" s="1" t="s">
@@ -15336,7 +15334,7 @@
       </c>
     </row>
     <row r="322" spans="1:12" ht="13">
-      <c r="A322" s="2">
+      <c r="A322" s="10">
         <v>43447</v>
       </c>
       <c r="B322" s="1" t="s">
@@ -15374,7 +15372,7 @@
       </c>
     </row>
     <row r="323" spans="1:12" ht="13">
-      <c r="A323" s="2">
+      <c r="A323" s="10">
         <v>43447</v>
       </c>
       <c r="B323" s="1" t="s">
@@ -15412,7 +15410,7 @@
       </c>
     </row>
     <row r="324" spans="1:12" ht="13">
-      <c r="A324" s="2">
+      <c r="A324" s="10">
         <v>43447</v>
       </c>
       <c r="B324" s="1" t="s">
@@ -15450,7 +15448,7 @@
       </c>
     </row>
     <row r="325" spans="1:12" ht="13">
-      <c r="A325" s="2">
+      <c r="A325" s="10">
         <v>43448</v>
       </c>
       <c r="B325" s="1" t="s">
@@ -15488,7 +15486,7 @@
       </c>
     </row>
     <row r="326" spans="1:12" ht="13">
-      <c r="A326" s="2">
+      <c r="A326" s="10">
         <v>43451</v>
       </c>
       <c r="B326" s="1" t="s">
@@ -15526,7 +15524,7 @@
       </c>
     </row>
     <row r="327" spans="1:12" ht="13">
-      <c r="A327" s="2">
+      <c r="A327" s="10">
         <v>43452</v>
       </c>
       <c r="B327" s="1" t="s">
@@ -15564,7 +15562,7 @@
       </c>
     </row>
     <row r="328" spans="1:12" ht="13">
-      <c r="A328" s="2">
+      <c r="A328" s="10">
         <v>43453</v>
       </c>
       <c r="B328" s="1" t="s">
@@ -15602,7 +15600,7 @@
       </c>
     </row>
     <row r="329" spans="1:12" ht="13">
-      <c r="A329" s="2">
+      <c r="A329" s="10">
         <v>43453</v>
       </c>
       <c r="B329" s="1" t="s">
@@ -15640,7 +15638,7 @@
       </c>
     </row>
     <row r="330" spans="1:12" ht="13">
-      <c r="A330" s="2">
+      <c r="A330" s="10">
         <v>43454</v>
       </c>
       <c r="B330" s="1" t="s">
@@ -15678,7 +15676,7 @@
       </c>
     </row>
     <row r="331" spans="1:12" ht="13">
-      <c r="A331" s="2">
+      <c r="A331" s="10">
         <v>43454</v>
       </c>
       <c r="B331" s="1" t="s">
@@ -15716,7 +15714,7 @@
       </c>
     </row>
     <row r="332" spans="1:12" ht="13">
-      <c r="A332" s="2">
+      <c r="A332" s="10">
         <v>43454</v>
       </c>
       <c r="B332" s="1" t="s">
@@ -15754,7 +15752,7 @@
       </c>
     </row>
     <row r="333" spans="1:12" ht="13">
-      <c r="A333" s="2">
+      <c r="A333" s="10">
         <v>43455</v>
       </c>
       <c r="B333" s="1" t="s">
@@ -15792,7 +15790,7 @@
       </c>
     </row>
     <row r="334" spans="1:12" ht="13">
-      <c r="A334" s="2">
+      <c r="A334" s="10">
         <v>43456</v>
       </c>
       <c r="B334" s="1" t="s">
@@ -15830,7 +15828,7 @@
       </c>
     </row>
     <row r="335" spans="1:12" ht="13">
-      <c r="A335" s="2">
+      <c r="A335" s="10">
         <v>43460</v>
       </c>
       <c r="B335" s="1" t="s">
@@ -15868,7 +15866,7 @@
       </c>
     </row>
     <row r="336" spans="1:12" ht="13">
-      <c r="A336" s="2">
+      <c r="A336" s="10">
         <v>43468</v>
       </c>
       <c r="B336" s="1" t="s">
@@ -15906,7 +15904,7 @@
       </c>
     </row>
     <row r="337" spans="1:12" ht="13">
-      <c r="A337" s="2">
+      <c r="A337" s="10">
         <v>43472</v>
       </c>
       <c r="B337" s="1" t="s">
@@ -15944,7 +15942,7 @@
       </c>
     </row>
     <row r="338" spans="1:12" ht="13">
-      <c r="A338" s="2">
+      <c r="A338" s="10">
         <v>43469</v>
       </c>
       <c r="B338" s="1" t="s">
@@ -15982,7 +15980,7 @@
       </c>
     </row>
     <row r="339" spans="1:12" ht="13">
-      <c r="A339" s="2">
+      <c r="A339" s="10">
         <v>43474</v>
       </c>
       <c r="B339" s="1" t="s">
@@ -16020,7 +16018,7 @@
       </c>
     </row>
     <row r="340" spans="1:12" ht="13">
-      <c r="A340" s="2">
+      <c r="A340" s="10">
         <v>43474</v>
       </c>
       <c r="B340" s="1" t="s">
@@ -16058,7 +16056,7 @@
       </c>
     </row>
     <row r="341" spans="1:12" ht="13">
-      <c r="A341" s="2">
+      <c r="A341" s="10">
         <v>43475</v>
       </c>
       <c r="B341" s="1" t="s">
@@ -16096,7 +16094,7 @@
       </c>
     </row>
     <row r="342" spans="1:12" ht="13">
-      <c r="A342" s="2">
+      <c r="A342" s="10">
         <v>43476</v>
       </c>
       <c r="B342" s="1" t="s">
@@ -16134,7 +16132,7 @@
       </c>
     </row>
     <row r="343" spans="1:12" ht="13">
-      <c r="A343" s="2">
+      <c r="A343" s="10">
         <v>43476</v>
       </c>
       <c r="B343" s="1" t="s">
@@ -16172,7 +16170,7 @@
       </c>
     </row>
     <row r="344" spans="1:12" ht="13">
-      <c r="A344" s="2">
+      <c r="A344" s="10">
         <v>43479</v>
       </c>
       <c r="B344" s="1" t="s">
@@ -16210,7 +16208,7 @@
       </c>
     </row>
     <row r="345" spans="1:12" ht="13">
-      <c r="A345" s="2">
+      <c r="A345" s="10">
         <v>43480</v>
       </c>
       <c r="B345" s="1" t="s">
@@ -16248,7 +16246,7 @@
       </c>
     </row>
     <row r="346" spans="1:12" ht="13">
-      <c r="A346" s="2">
+      <c r="A346" s="10">
         <v>43480</v>
       </c>
       <c r="B346" s="1" t="s">
@@ -16286,7 +16284,7 @@
       </c>
     </row>
     <row r="347" spans="1:12" ht="13">
-      <c r="A347" s="2">
+      <c r="A347" s="10">
         <v>43480</v>
       </c>
       <c r="B347" s="1" t="s">
@@ -16324,7 +16322,7 @@
       </c>
     </row>
     <row r="348" spans="1:12" ht="13">
-      <c r="A348" s="2">
+      <c r="A348" s="10">
         <v>43481</v>
       </c>
       <c r="B348" s="1" t="s">
@@ -16362,7 +16360,7 @@
       </c>
     </row>
     <row r="349" spans="1:12" ht="13">
-      <c r="A349" s="2">
+      <c r="A349" s="10">
         <v>43482</v>
       </c>
       <c r="B349" s="1" t="s">
@@ -16400,7 +16398,7 @@
       </c>
     </row>
     <row r="350" spans="1:12" ht="13">
-      <c r="A350" s="2">
+      <c r="A350" s="10">
         <v>43483</v>
       </c>
       <c r="B350" s="1" t="s">
@@ -16438,7 +16436,7 @@
       </c>
     </row>
     <row r="351" spans="1:12" ht="13">
-      <c r="A351" s="2">
+      <c r="A351" s="10">
         <v>43486</v>
       </c>
       <c r="B351" s="1" t="s">
@@ -16476,7 +16474,7 @@
       </c>
     </row>
     <row r="352" spans="1:12" ht="13">
-      <c r="A352" s="2">
+      <c r="A352" s="10">
         <v>43486</v>
       </c>
       <c r="B352" s="1" t="s">
@@ -16497,24 +16495,24 @@
       <c r="G352" s="1">
         <v>0</v>
       </c>
-      <c r="H352" s="7">
-        <v>1</v>
-      </c>
-      <c r="I352" s="7">
-        <v>0</v>
-      </c>
-      <c r="J352" s="7">
-        <v>0</v>
-      </c>
-      <c r="K352" s="7">
-        <v>0</v>
-      </c>
-      <c r="L352" s="7" t="s">
+      <c r="H352" s="5">
+        <v>1</v>
+      </c>
+      <c r="I352" s="5">
+        <v>0</v>
+      </c>
+      <c r="J352" s="5">
+        <v>0</v>
+      </c>
+      <c r="K352" s="5">
+        <v>0</v>
+      </c>
+      <c r="L352" s="5" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="353" spans="1:12" ht="13">
-      <c r="A353" s="2">
+      <c r="A353" s="10">
         <v>43489</v>
       </c>
       <c r="B353" s="1" t="s">
@@ -16552,7 +16550,7 @@
       </c>
     </row>
     <row r="354" spans="1:12" ht="13">
-      <c r="A354" s="2">
+      <c r="A354" s="10">
         <v>43489</v>
       </c>
       <c r="B354" s="1" t="s">
@@ -16590,7 +16588,7 @@
       </c>
     </row>
     <row r="355" spans="1:12" ht="13">
-      <c r="A355" s="2">
+      <c r="A355" s="10">
         <v>43490</v>
       </c>
       <c r="B355" s="1" t="s">
@@ -16628,7 +16626,7 @@
       </c>
     </row>
     <row r="356" spans="1:12" ht="13">
-      <c r="A356" s="2">
+      <c r="A356" s="10">
         <v>43490</v>
       </c>
       <c r="B356" s="1" t="s">
@@ -16666,7 +16664,7 @@
       </c>
     </row>
     <row r="357" spans="1:12" ht="13">
-      <c r="A357" s="2">
+      <c r="A357" s="10">
         <v>43490</v>
       </c>
       <c r="B357" s="1" t="s">
@@ -16704,7 +16702,7 @@
       </c>
     </row>
     <row r="358" spans="1:12" ht="13">
-      <c r="A358" s="2">
+      <c r="A358" s="10">
         <v>43493</v>
       </c>
       <c r="B358" s="1" t="s">
@@ -16742,7 +16740,7 @@
       </c>
     </row>
     <row r="359" spans="1:12" ht="13">
-      <c r="A359" s="2">
+      <c r="A359" s="10">
         <v>43493</v>
       </c>
       <c r="B359" s="1" t="s">
@@ -16780,7 +16778,7 @@
       </c>
     </row>
     <row r="360" spans="1:12" ht="13">
-      <c r="A360" s="2">
+      <c r="A360" s="10">
         <v>43493</v>
       </c>
       <c r="B360" s="1" t="s">
@@ -16818,7 +16816,7 @@
       </c>
     </row>
     <row r="361" spans="1:12" ht="13">
-      <c r="A361" s="2">
+      <c r="A361" s="10">
         <v>43494</v>
       </c>
       <c r="B361" s="1" t="s">
@@ -16856,7 +16854,7 @@
       </c>
     </row>
     <row r="362" spans="1:12" ht="13">
-      <c r="A362" s="2">
+      <c r="A362" s="10">
         <v>43495</v>
       </c>
       <c r="B362" s="1" t="s">
@@ -16894,7 +16892,7 @@
       </c>
     </row>
     <row r="363" spans="1:12" ht="13">
-      <c r="A363" s="2">
+      <c r="A363" s="10">
         <v>43496</v>
       </c>
       <c r="B363" s="1" t="s">
@@ -16932,7 +16930,7 @@
       </c>
     </row>
     <row r="364" spans="1:12" ht="13">
-      <c r="A364" s="2">
+      <c r="A364" s="10">
         <v>43497</v>
       </c>
       <c r="B364" s="1" t="s">
@@ -16970,7 +16968,7 @@
       </c>
     </row>
     <row r="365" spans="1:12" ht="13">
-      <c r="A365" s="2">
+      <c r="A365" s="10">
         <v>43497</v>
       </c>
       <c r="B365" s="1" t="s">
@@ -17008,7 +17006,7 @@
       </c>
     </row>
     <row r="366" spans="1:12" ht="13">
-      <c r="A366" s="2">
+      <c r="A366" s="10">
         <v>43500</v>
       </c>
       <c r="B366" s="1" t="s">
@@ -17046,7 +17044,7 @@
       </c>
     </row>
     <row r="367" spans="1:12" ht="13">
-      <c r="A367" s="2">
+      <c r="A367" s="10">
         <v>43501</v>
       </c>
       <c r="B367" s="1" t="s">
@@ -17084,7 +17082,7 @@
       </c>
     </row>
     <row r="368" spans="1:12" ht="13">
-      <c r="A368" s="2">
+      <c r="A368" s="10">
         <v>43502</v>
       </c>
       <c r="B368" s="1" t="s">
@@ -17122,7 +17120,7 @@
       </c>
     </row>
     <row r="369" spans="1:12" ht="13">
-      <c r="A369" s="2">
+      <c r="A369" s="10">
         <v>43506</v>
       </c>
       <c r="B369" s="1" t="s">
@@ -17160,7 +17158,7 @@
       </c>
     </row>
     <row r="370" spans="1:12" ht="13">
-      <c r="A370" s="2">
+      <c r="A370" s="10">
         <v>43508</v>
       </c>
       <c r="B370" s="1" t="s">
@@ -17198,7 +17196,7 @@
       </c>
     </row>
     <row r="371" spans="1:12" ht="13">
-      <c r="A371" s="2">
+      <c r="A371" s="10">
         <v>43511</v>
       </c>
       <c r="B371" s="1" t="s">
@@ -17236,7 +17234,7 @@
       </c>
     </row>
     <row r="372" spans="1:12" ht="13">
-      <c r="A372" s="2">
+      <c r="A372" s="10">
         <v>43511</v>
       </c>
       <c r="B372" s="1" t="s">
@@ -17274,7 +17272,7 @@
       </c>
     </row>
     <row r="373" spans="1:12" ht="13">
-      <c r="A373" s="2">
+      <c r="A373" s="10">
         <v>43514</v>
       </c>
       <c r="B373" s="1" t="s">
@@ -17312,7 +17310,7 @@
       </c>
     </row>
     <row r="374" spans="1:12" ht="13">
-      <c r="A374" s="2">
+      <c r="A374" s="10">
         <v>43514</v>
       </c>
       <c r="B374" s="1" t="s">
@@ -17350,7 +17348,7 @@
       </c>
     </row>
     <row r="375" spans="1:12" ht="13">
-      <c r="A375" s="2">
+      <c r="A375" s="10">
         <v>43515</v>
       </c>
       <c r="B375" s="1" t="s">
@@ -17388,7 +17386,7 @@
       </c>
     </row>
     <row r="376" spans="1:12" ht="13">
-      <c r="A376" s="2">
+      <c r="A376" s="10">
         <v>43516</v>
       </c>
       <c r="B376" s="1" t="s">
@@ -17426,7 +17424,7 @@
       </c>
     </row>
     <row r="377" spans="1:12" ht="13">
-      <c r="A377" s="2">
+      <c r="A377" s="10">
         <v>43516</v>
       </c>
       <c r="B377" s="1" t="s">
@@ -17464,7 +17462,7 @@
       </c>
     </row>
     <row r="378" spans="1:12" ht="13">
-      <c r="A378" s="2">
+      <c r="A378" s="10">
         <v>43516</v>
       </c>
       <c r="B378" s="1" t="s">
@@ -17502,7 +17500,7 @@
       </c>
     </row>
     <row r="379" spans="1:12" ht="13">
-      <c r="A379" s="2">
+      <c r="A379" s="10">
         <v>43516</v>
       </c>
       <c r="B379" s="1" t="s">
@@ -17540,7 +17538,7 @@
       </c>
     </row>
     <row r="380" spans="1:12" ht="13">
-      <c r="A380" s="2">
+      <c r="A380" s="10">
         <v>43517</v>
       </c>
       <c r="B380" s="1" t="s">
@@ -17578,7 +17576,7 @@
       </c>
     </row>
     <row r="381" spans="1:12" ht="13">
-      <c r="A381" s="2">
+      <c r="A381" s="10">
         <v>43518</v>
       </c>
       <c r="B381" s="1" t="s">
@@ -17616,7 +17614,7 @@
       </c>
     </row>
     <row r="382" spans="1:12" ht="13">
-      <c r="A382" s="2">
+      <c r="A382" s="10">
         <v>43521</v>
       </c>
       <c r="B382" s="1" t="s">
@@ -17654,7 +17652,7 @@
       </c>
     </row>
     <row r="383" spans="1:12" ht="13">
-      <c r="A383" s="2">
+      <c r="A383" s="10">
         <v>43521</v>
       </c>
       <c r="B383" s="1" t="s">
@@ -17692,7 +17690,7 @@
       </c>
     </row>
     <row r="384" spans="1:12" ht="13">
-      <c r="A384" s="2">
+      <c r="A384" s="10">
         <v>43521</v>
       </c>
       <c r="B384" s="1" t="s">
@@ -17730,7 +17728,7 @@
       </c>
     </row>
     <row r="385" spans="1:12" ht="13">
-      <c r="A385" s="2">
+      <c r="A385" s="10">
         <v>43521</v>
       </c>
       <c r="B385" s="1" t="s">
@@ -17768,7 +17766,7 @@
       </c>
     </row>
     <row r="386" spans="1:12" ht="13">
-      <c r="A386" s="2">
+      <c r="A386" s="10">
         <v>43523</v>
       </c>
       <c r="B386" s="1" t="s">
@@ -17806,7 +17804,7 @@
       </c>
     </row>
     <row r="387" spans="1:12" ht="13">
-      <c r="A387" s="2">
+      <c r="A387" s="10">
         <v>43523</v>
       </c>
       <c r="B387" s="1" t="s">
@@ -17844,7 +17842,7 @@
       </c>
     </row>
     <row r="388" spans="1:12" ht="13">
-      <c r="A388" s="2">
+      <c r="A388" s="10">
         <v>43523</v>
       </c>
       <c r="B388" s="1" t="s">
@@ -17882,7 +17880,7 @@
       </c>
     </row>
     <row r="389" spans="1:12" ht="13">
-      <c r="A389" s="2">
+      <c r="A389" s="10">
         <v>43523</v>
       </c>
       <c r="B389" s="1" t="s">
@@ -17920,7 +17918,7 @@
       </c>
     </row>
     <row r="390" spans="1:12" ht="13">
-      <c r="A390" s="2">
+      <c r="A390" s="10">
         <v>43523</v>
       </c>
       <c r="B390" s="1" t="s">
@@ -17958,7 +17956,7 @@
       </c>
     </row>
     <row r="391" spans="1:12" ht="13">
-      <c r="A391" s="3">
+      <c r="A391" s="10">
         <v>43524</v>
       </c>
       <c r="B391" s="1" t="s">
@@ -17996,7 +17994,7 @@
       </c>
     </row>
     <row r="392" spans="1:12" ht="13">
-      <c r="A392" s="2">
+      <c r="A392" s="10">
         <v>43524</v>
       </c>
       <c r="B392" s="1" t="s">
@@ -18034,7 +18032,7 @@
       </c>
     </row>
     <row r="393" spans="1:12" ht="13">
-      <c r="A393" s="2">
+      <c r="A393" s="10">
         <v>43524</v>
       </c>
       <c r="B393" s="1" t="s">
@@ -18072,7 +18070,7 @@
       </c>
     </row>
     <row r="394" spans="1:12" ht="13">
-      <c r="A394" s="2">
+      <c r="A394" s="10">
         <v>43528</v>
       </c>
       <c r="B394" s="1" t="s">
@@ -18110,7 +18108,7 @@
       </c>
     </row>
     <row r="395" spans="1:12" ht="13">
-      <c r="A395" s="2">
+      <c r="A395" s="10">
         <v>43528</v>
       </c>
       <c r="B395" s="1" t="s">
@@ -18148,7 +18146,7 @@
       </c>
     </row>
     <row r="396" spans="1:12" ht="13">
-      <c r="A396" s="2">
+      <c r="A396" s="10">
         <v>43528</v>
       </c>
       <c r="B396" s="1" t="s">
@@ -18186,7 +18184,7 @@
       </c>
     </row>
     <row r="397" spans="1:12" ht="13">
-      <c r="A397" s="2">
+      <c r="A397" s="10">
         <v>43528</v>
       </c>
       <c r="B397" s="1" t="s">
@@ -18224,7 +18222,7 @@
       </c>
     </row>
     <row r="398" spans="1:12" ht="13">
-      <c r="A398" s="2">
+      <c r="A398" s="10">
         <v>43529</v>
       </c>
       <c r="B398" s="1" t="s">
@@ -18262,7 +18260,7 @@
       </c>
     </row>
     <row r="399" spans="1:12" ht="13">
-      <c r="A399" s="2">
+      <c r="A399" s="10">
         <v>43529</v>
       </c>
       <c r="B399" s="1" t="s">
@@ -18300,7 +18298,7 @@
       </c>
     </row>
     <row r="400" spans="1:12" ht="13">
-      <c r="A400" s="2">
+      <c r="A400" s="10">
         <v>43529</v>
       </c>
       <c r="B400" s="1" t="s">
@@ -18338,7 +18336,7 @@
       </c>
     </row>
     <row r="401" spans="1:12" ht="13">
-      <c r="A401" s="2">
+      <c r="A401" s="10">
         <v>43530</v>
       </c>
       <c r="B401" s="1" t="s">
@@ -18376,7 +18374,7 @@
       </c>
     </row>
     <row r="402" spans="1:12" ht="13">
-      <c r="A402" s="2">
+      <c r="A402" s="10">
         <v>43531</v>
       </c>
       <c r="B402" s="1" t="s">
@@ -18414,7 +18412,7 @@
       </c>
     </row>
     <row r="403" spans="1:12" ht="13">
-      <c r="A403" s="2">
+      <c r="A403" s="10">
         <v>43531</v>
       </c>
       <c r="B403" s="1" t="s">
@@ -18452,7 +18450,7 @@
       </c>
     </row>
     <row r="404" spans="1:12" ht="13">
-      <c r="A404" s="2">
+      <c r="A404" s="10">
         <v>43532</v>
       </c>
       <c r="B404" s="1" t="s">
@@ -18490,7 +18488,7 @@
       </c>
     </row>
     <row r="405" spans="1:12" ht="13">
-      <c r="A405" s="2">
+      <c r="A405" s="10">
         <v>43535</v>
       </c>
       <c r="B405" s="1" t="s">
@@ -18528,7 +18526,7 @@
       </c>
     </row>
     <row r="406" spans="1:12" ht="13">
-      <c r="A406" s="2">
+      <c r="A406" s="10">
         <v>43535</v>
       </c>
       <c r="B406" s="1" t="s">
@@ -18566,7 +18564,7 @@
       </c>
     </row>
     <row r="407" spans="1:12" ht="13">
-      <c r="A407" s="2">
+      <c r="A407" s="10">
         <v>43536</v>
       </c>
       <c r="B407" s="1" t="s">
@@ -18604,7 +18602,7 @@
       </c>
     </row>
     <row r="408" spans="1:12" ht="13">
-      <c r="A408" s="2">
+      <c r="A408" s="10">
         <v>43537</v>
       </c>
       <c r="B408" s="1" t="s">
@@ -18642,7 +18640,7 @@
       </c>
     </row>
     <row r="409" spans="1:12" ht="13">
-      <c r="A409" s="2">
+      <c r="A409" s="10">
         <v>43537</v>
       </c>
       <c r="B409" s="1" t="s">
@@ -18680,7 +18678,7 @@
       </c>
     </row>
     <row r="410" spans="1:12" ht="13">
-      <c r="A410" s="2">
+      <c r="A410" s="10">
         <v>43538</v>
       </c>
       <c r="B410" s="1" t="s">
@@ -18718,7 +18716,7 @@
       </c>
     </row>
     <row r="411" spans="1:12" ht="13">
-      <c r="A411" s="3">
+      <c r="A411" s="10">
         <v>43542</v>
       </c>
       <c r="B411" s="1" t="s">
@@ -18756,7 +18754,7 @@
       </c>
     </row>
     <row r="412" spans="1:12" ht="13">
-      <c r="A412" s="2">
+      <c r="A412" s="10">
         <v>43542</v>
       </c>
       <c r="B412" s="1" t="s">
@@ -18794,7 +18792,7 @@
       </c>
     </row>
     <row r="413" spans="1:12" ht="13">
-      <c r="A413" s="2">
+      <c r="A413" s="10">
         <v>43542</v>
       </c>
       <c r="B413" s="1" t="s">
@@ -18832,7 +18830,7 @@
       </c>
     </row>
     <row r="414" spans="1:12" ht="13">
-      <c r="A414" s="2">
+      <c r="A414" s="10">
         <v>43543</v>
       </c>
       <c r="B414" s="1" t="s">
@@ -18870,7 +18868,7 @@
       </c>
     </row>
     <row r="415" spans="1:12" ht="13">
-      <c r="A415" s="2">
+      <c r="A415" s="10">
         <v>43546</v>
       </c>
       <c r="B415" s="1" t="s">
@@ -18908,7 +18906,7 @@
       </c>
     </row>
     <row r="416" spans="1:12" ht="13">
-      <c r="A416" s="2">
+      <c r="A416" s="10">
         <v>43549</v>
       </c>
       <c r="B416" s="1" t="s">
@@ -18946,7 +18944,7 @@
       </c>
     </row>
     <row r="417" spans="1:12" ht="13">
-      <c r="A417" s="2">
+      <c r="A417" s="10">
         <v>43552</v>
       </c>
       <c r="B417" s="1" t="s">
@@ -18984,7 +18982,7 @@
       </c>
     </row>
     <row r="418" spans="1:12" ht="13">
-      <c r="A418" s="2">
+      <c r="A418" s="10">
         <v>43552</v>
       </c>
       <c r="B418" s="1" t="s">
@@ -19022,7 +19020,7 @@
       </c>
     </row>
     <row r="419" spans="1:12" ht="13">
-      <c r="A419" s="2">
+      <c r="A419" s="10">
         <v>43556</v>
       </c>
       <c r="B419" s="1" t="s">
@@ -19060,7 +19058,7 @@
       </c>
     </row>
     <row r="420" spans="1:12" ht="13">
-      <c r="A420" s="2">
+      <c r="A420" s="10">
         <v>43558</v>
       </c>
       <c r="B420" s="1" t="s">
@@ -19098,7 +19096,7 @@
       </c>
     </row>
     <row r="421" spans="1:12" ht="13">
-      <c r="A421" s="2">
+      <c r="A421" s="10">
         <v>43560</v>
       </c>
       <c r="B421" s="1" t="s">
@@ -19136,7 +19134,7 @@
       </c>
     </row>
     <row r="422" spans="1:12" ht="13">
-      <c r="A422" s="2">
+      <c r="A422" s="10">
         <v>43560</v>
       </c>
       <c r="B422" s="1" t="s">
@@ -19174,7 +19172,7 @@
       </c>
     </row>
     <row r="423" spans="1:12" ht="13">
-      <c r="A423" s="2">
+      <c r="A423" s="10">
         <v>43563</v>
       </c>
       <c r="B423" s="1" t="s">
@@ -19212,7 +19210,7 @@
       </c>
     </row>
     <row r="424" spans="1:12" ht="13">
-      <c r="A424" s="2">
+      <c r="A424" s="10">
         <v>43565</v>
       </c>
       <c r="B424" s="1" t="s">
@@ -19250,7 +19248,7 @@
       </c>
     </row>
     <row r="425" spans="1:12" ht="13">
-      <c r="A425" s="2">
+      <c r="A425" s="10">
         <v>43573</v>
       </c>
       <c r="B425" s="1" t="s">
@@ -19288,7 +19286,7 @@
       </c>
     </row>
     <row r="426" spans="1:12" ht="13">
-      <c r="A426" s="2">
+      <c r="A426" s="10">
         <v>43580</v>
       </c>
       <c r="B426" s="1" t="s">
@@ -19326,7 +19324,7 @@
       </c>
     </row>
     <row r="427" spans="1:12" ht="13">
-      <c r="A427" s="2">
+      <c r="A427" s="10">
         <v>43582</v>
       </c>
       <c r="B427" s="1" t="s">
@@ -19364,7 +19362,7 @@
       </c>
     </row>
     <row r="428" spans="1:12" ht="13">
-      <c r="A428" s="2">
+      <c r="A428" s="10">
         <v>43584</v>
       </c>
       <c r="B428" s="1" t="s">
@@ -19402,7 +19400,7 @@
       </c>
     </row>
     <row r="429" spans="1:12" ht="13">
-      <c r="A429" s="2">
+      <c r="A429" s="10">
         <v>43584</v>
       </c>
       <c r="B429" s="1" t="s">
@@ -19440,7 +19438,7 @@
       </c>
     </row>
     <row r="430" spans="1:12" ht="13">
-      <c r="A430" s="2">
+      <c r="A430" s="10">
         <v>43584</v>
       </c>
       <c r="B430" s="1" t="s">
@@ -19478,7 +19476,7 @@
       </c>
     </row>
     <row r="431" spans="1:12" ht="13">
-      <c r="A431" s="2">
+      <c r="A431" s="10">
         <v>43585</v>
       </c>
       <c r="B431" s="1" t="s">
@@ -19516,7 +19514,7 @@
       </c>
     </row>
     <row r="432" spans="1:12" ht="13">
-      <c r="A432" s="2">
+      <c r="A432" s="10">
         <v>43587</v>
       </c>
       <c r="B432" s="1" t="s">
@@ -19554,7 +19552,7 @@
       </c>
     </row>
     <row r="433" spans="1:12" ht="13">
-      <c r="A433" s="2">
+      <c r="A433" s="10">
         <v>43593</v>
       </c>
       <c r="B433" s="1" t="s">
@@ -19592,7 +19590,7 @@
       </c>
     </row>
     <row r="434" spans="1:12" ht="13">
-      <c r="A434" s="2">
+      <c r="A434" s="10">
         <v>43593</v>
       </c>
       <c r="B434" s="1" t="s">
@@ -19630,7 +19628,7 @@
       </c>
     </row>
     <row r="435" spans="1:12" ht="13">
-      <c r="A435" s="2">
+      <c r="A435" s="10">
         <v>43593</v>
       </c>
       <c r="B435" s="1" t="s">
@@ -19668,7 +19666,7 @@
       </c>
     </row>
     <row r="436" spans="1:12" ht="13">
-      <c r="A436" s="2">
+      <c r="A436" s="10">
         <v>43598</v>
       </c>
       <c r="B436" s="1" t="s">
@@ -19706,7 +19704,7 @@
       </c>
     </row>
     <row r="437" spans="1:12" ht="13">
-      <c r="A437" s="2">
+      <c r="A437" s="10">
         <v>43608</v>
       </c>
       <c r="B437" s="1" t="s">
@@ -19744,7 +19742,7 @@
       </c>
     </row>
     <row r="438" spans="1:12" ht="13">
-      <c r="A438" s="2">
+      <c r="A438" s="10">
         <v>43609</v>
       </c>
       <c r="B438" s="1" t="s">
@@ -19782,7 +19780,7 @@
       </c>
     </row>
     <row r="439" spans="1:12" ht="13">
-      <c r="A439" s="2">
+      <c r="A439" s="10">
         <v>43610</v>
       </c>
       <c r="B439" s="1" t="s">
@@ -19820,7 +19818,7 @@
       </c>
     </row>
     <row r="440" spans="1:12" ht="13">
-      <c r="A440" s="2">
+      <c r="A440" s="10">
         <v>43615</v>
       </c>
       <c r="B440" s="1" t="s">
@@ -19858,7 +19856,7 @@
       </c>
     </row>
     <row r="441" spans="1:12" ht="13">
-      <c r="A441" s="2">
+      <c r="A441" s="10">
         <v>43616</v>
       </c>
       <c r="B441" s="1" t="s">
@@ -19896,7 +19894,7 @@
       </c>
     </row>
     <row r="442" spans="1:12" ht="13">
-      <c r="A442" s="2">
+      <c r="A442" s="10">
         <v>43627</v>
       </c>
       <c r="B442" s="1" t="s">
@@ -19934,7 +19932,7 @@
       </c>
     </row>
     <row r="443" spans="1:12" ht="13">
-      <c r="A443" s="2">
+      <c r="A443" s="10">
         <v>43641</v>
       </c>
       <c r="B443" s="1" t="s">
@@ -19972,7 +19970,7 @@
       </c>
     </row>
     <row r="444" spans="1:12" ht="13">
-      <c r="A444" s="2">
+      <c r="A444" s="10">
         <v>43643</v>
       </c>
       <c r="B444" s="1" t="s">
@@ -20010,7 +20008,7 @@
       </c>
     </row>
     <row r="445" spans="1:12" ht="13">
-      <c r="A445" s="2">
+      <c r="A445" s="10">
         <v>43648</v>
       </c>
       <c r="B445" s="1" t="s">
@@ -20048,7 +20046,7 @@
       </c>
     </row>
     <row r="446" spans="1:12" ht="13">
-      <c r="A446" s="2">
+      <c r="A446" s="10">
         <v>43648</v>
       </c>
       <c r="B446" s="1" t="s">
@@ -20086,7 +20084,7 @@
       </c>
     </row>
     <row r="447" spans="1:12" ht="13">
-      <c r="A447" s="2">
+      <c r="A447" s="10">
         <v>43649</v>
       </c>
       <c r="B447" s="1" t="s">
@@ -20124,7 +20122,7 @@
       </c>
     </row>
     <row r="448" spans="1:12" ht="13">
-      <c r="A448" s="2">
+      <c r="A448" s="10">
         <v>43651</v>
       </c>
       <c r="B448" s="1" t="s">
@@ -20162,7 +20160,7 @@
       </c>
     </row>
     <row r="449" spans="1:12" ht="13">
-      <c r="A449" s="2">
+      <c r="A449" s="10">
         <v>43657</v>
       </c>
       <c r="B449" s="1" t="s">
@@ -20200,7 +20198,7 @@
       </c>
     </row>
     <row r="450" spans="1:12" ht="13">
-      <c r="A450" s="2">
+      <c r="A450" s="10">
         <v>43658</v>
       </c>
       <c r="B450" s="1" t="s">
@@ -20238,7 +20236,7 @@
       </c>
     </row>
     <row r="451" spans="1:12" ht="13">
-      <c r="A451" s="2">
+      <c r="A451" s="10">
         <v>43662</v>
       </c>
       <c r="B451" s="1" t="s">
@@ -20276,7 +20274,7 @@
       </c>
     </row>
     <row r="452" spans="1:12" ht="13">
-      <c r="A452" s="2">
+      <c r="A452" s="10">
         <v>43671</v>
       </c>
       <c r="B452" s="1" t="s">
@@ -20314,7 +20312,7 @@
       </c>
     </row>
     <row r="453" spans="1:12" ht="13">
-      <c r="A453" s="2">
+      <c r="A453" s="10">
         <v>43675</v>
       </c>
       <c r="B453" s="1" t="s">
@@ -20352,7 +20350,7 @@
       </c>
     </row>
     <row r="454" spans="1:12" ht="13">
-      <c r="A454" s="2">
+      <c r="A454" s="10">
         <v>43677</v>
       </c>
       <c r="B454" s="1" t="s">
@@ -20390,1927 +20388,1927 @@
       </c>
     </row>
     <row r="455" spans="1:12" ht="13">
-      <c r="A455" s="8"/>
+      <c r="A455" s="11"/>
     </row>
     <row r="456" spans="1:12" ht="13">
-      <c r="A456" s="8"/>
+      <c r="A456" s="11"/>
     </row>
     <row r="457" spans="1:12" ht="13">
-      <c r="A457" s="8"/>
+      <c r="A457" s="11"/>
     </row>
     <row r="458" spans="1:12" ht="13">
-      <c r="A458" s="8"/>
+      <c r="A458" s="11"/>
     </row>
     <row r="459" spans="1:12" ht="13">
-      <c r="A459" s="8"/>
+      <c r="A459" s="11"/>
     </row>
     <row r="460" spans="1:12" ht="13">
-      <c r="A460" s="8"/>
+      <c r="A460" s="11"/>
     </row>
     <row r="461" spans="1:12" ht="13">
-      <c r="A461" s="8"/>
+      <c r="A461" s="11"/>
     </row>
     <row r="462" spans="1:12" ht="13">
-      <c r="A462" s="8"/>
+      <c r="A462" s="11"/>
     </row>
     <row r="463" spans="1:12" ht="13">
-      <c r="A463" s="8"/>
+      <c r="A463" s="11"/>
     </row>
     <row r="464" spans="1:12" ht="13">
-      <c r="A464" s="8"/>
+      <c r="A464" s="11"/>
     </row>
     <row r="465" spans="1:1" ht="13">
-      <c r="A465" s="8"/>
+      <c r="A465" s="11"/>
     </row>
     <row r="466" spans="1:1" ht="13">
-      <c r="A466" s="8"/>
+      <c r="A466" s="11"/>
     </row>
     <row r="467" spans="1:1" ht="13">
-      <c r="A467" s="8"/>
+      <c r="A467" s="11"/>
     </row>
     <row r="468" spans="1:1" ht="13">
-      <c r="A468" s="8"/>
+      <c r="A468" s="11"/>
     </row>
     <row r="469" spans="1:1" ht="13">
-      <c r="A469" s="8"/>
+      <c r="A469" s="11"/>
     </row>
     <row r="470" spans="1:1" ht="13">
-      <c r="A470" s="8"/>
+      <c r="A470" s="11"/>
     </row>
     <row r="471" spans="1:1" ht="13">
-      <c r="A471" s="8"/>
+      <c r="A471" s="11"/>
     </row>
     <row r="472" spans="1:1" ht="13">
-      <c r="A472" s="8"/>
+      <c r="A472" s="11"/>
     </row>
     <row r="473" spans="1:1" ht="13">
-      <c r="A473" s="8"/>
+      <c r="A473" s="11"/>
     </row>
     <row r="474" spans="1:1" ht="13">
-      <c r="A474" s="8"/>
+      <c r="A474" s="11"/>
     </row>
     <row r="475" spans="1:1" ht="13">
-      <c r="A475" s="8"/>
+      <c r="A475" s="11"/>
     </row>
     <row r="476" spans="1:1" ht="13">
-      <c r="A476" s="8"/>
+      <c r="A476" s="11"/>
     </row>
     <row r="477" spans="1:1" ht="13">
-      <c r="A477" s="8"/>
+      <c r="A477" s="11"/>
     </row>
     <row r="478" spans="1:1" ht="13">
-      <c r="A478" s="8"/>
+      <c r="A478" s="11"/>
     </row>
     <row r="479" spans="1:1" ht="13">
-      <c r="A479" s="8"/>
+      <c r="A479" s="11"/>
     </row>
     <row r="480" spans="1:1" ht="13">
-      <c r="A480" s="8"/>
+      <c r="A480" s="11"/>
     </row>
     <row r="481" spans="1:1" ht="13">
-      <c r="A481" s="8"/>
+      <c r="A481" s="11"/>
     </row>
     <row r="482" spans="1:1" ht="13">
-      <c r="A482" s="8"/>
+      <c r="A482" s="11"/>
     </row>
     <row r="483" spans="1:1" ht="13">
-      <c r="A483" s="8"/>
+      <c r="A483" s="11"/>
     </row>
     <row r="484" spans="1:1" ht="13">
-      <c r="A484" s="8"/>
+      <c r="A484" s="11"/>
     </row>
     <row r="485" spans="1:1" ht="13">
-      <c r="A485" s="8"/>
+      <c r="A485" s="11"/>
     </row>
     <row r="486" spans="1:1" ht="13">
-      <c r="A486" s="8"/>
+      <c r="A486" s="11"/>
     </row>
     <row r="487" spans="1:1" ht="13">
-      <c r="A487" s="8"/>
+      <c r="A487" s="11"/>
     </row>
     <row r="488" spans="1:1" ht="13">
-      <c r="A488" s="8"/>
+      <c r="A488" s="11"/>
     </row>
     <row r="489" spans="1:1" ht="13">
-      <c r="A489" s="8"/>
+      <c r="A489" s="11"/>
     </row>
     <row r="490" spans="1:1" ht="13">
-      <c r="A490" s="8"/>
+      <c r="A490" s="11"/>
     </row>
     <row r="491" spans="1:1" ht="13">
-      <c r="A491" s="8"/>
+      <c r="A491" s="11"/>
     </row>
     <row r="492" spans="1:1" ht="13">
-      <c r="A492" s="8"/>
+      <c r="A492" s="11"/>
     </row>
     <row r="493" spans="1:1" ht="13">
-      <c r="A493" s="8"/>
+      <c r="A493" s="11"/>
     </row>
     <row r="494" spans="1:1" ht="13">
-      <c r="A494" s="8"/>
+      <c r="A494" s="11"/>
     </row>
     <row r="495" spans="1:1" ht="13">
-      <c r="A495" s="8"/>
+      <c r="A495" s="11"/>
     </row>
     <row r="496" spans="1:1" ht="13">
-      <c r="A496" s="8"/>
+      <c r="A496" s="11"/>
     </row>
     <row r="497" spans="1:1" ht="13">
-      <c r="A497" s="8"/>
+      <c r="A497" s="11"/>
     </row>
     <row r="498" spans="1:1" ht="13">
-      <c r="A498" s="8"/>
+      <c r="A498" s="11"/>
     </row>
     <row r="499" spans="1:1" ht="13">
-      <c r="A499" s="8"/>
+      <c r="A499" s="11"/>
     </row>
     <row r="500" spans="1:1" ht="13">
-      <c r="A500" s="8"/>
+      <c r="A500" s="11"/>
     </row>
     <row r="501" spans="1:1" ht="13">
-      <c r="A501" s="8"/>
+      <c r="A501" s="11"/>
     </row>
     <row r="502" spans="1:1" ht="13">
-      <c r="A502" s="8"/>
+      <c r="A502" s="11"/>
     </row>
     <row r="503" spans="1:1" ht="13">
-      <c r="A503" s="8"/>
+      <c r="A503" s="11"/>
     </row>
     <row r="504" spans="1:1" ht="13">
-      <c r="A504" s="8"/>
+      <c r="A504" s="11"/>
     </row>
     <row r="505" spans="1:1" ht="13">
-      <c r="A505" s="8"/>
+      <c r="A505" s="11"/>
     </row>
     <row r="506" spans="1:1" ht="13">
-      <c r="A506" s="8"/>
+      <c r="A506" s="11"/>
     </row>
     <row r="507" spans="1:1" ht="13">
-      <c r="A507" s="8"/>
+      <c r="A507" s="11"/>
     </row>
     <row r="508" spans="1:1" ht="13">
-      <c r="A508" s="8"/>
+      <c r="A508" s="11"/>
     </row>
     <row r="509" spans="1:1" ht="13">
-      <c r="A509" s="8"/>
+      <c r="A509" s="11"/>
     </row>
     <row r="510" spans="1:1" ht="13">
-      <c r="A510" s="8"/>
+      <c r="A510" s="11"/>
     </row>
     <row r="511" spans="1:1" ht="13">
-      <c r="A511" s="8"/>
+      <c r="A511" s="11"/>
     </row>
     <row r="512" spans="1:1" ht="13">
-      <c r="A512" s="8"/>
+      <c r="A512" s="11"/>
     </row>
     <row r="513" spans="1:1" ht="13">
-      <c r="A513" s="8"/>
+      <c r="A513" s="11"/>
     </row>
     <row r="514" spans="1:1" ht="13">
-      <c r="A514" s="8"/>
+      <c r="A514" s="11"/>
     </row>
     <row r="515" spans="1:1" ht="13">
-      <c r="A515" s="8"/>
+      <c r="A515" s="11"/>
     </row>
     <row r="516" spans="1:1" ht="13">
-      <c r="A516" s="8"/>
+      <c r="A516" s="11"/>
     </row>
     <row r="517" spans="1:1" ht="13">
-      <c r="A517" s="8"/>
+      <c r="A517" s="11"/>
     </row>
     <row r="518" spans="1:1" ht="13">
-      <c r="A518" s="8"/>
+      <c r="A518" s="11"/>
     </row>
     <row r="519" spans="1:1" ht="13">
-      <c r="A519" s="8"/>
+      <c r="A519" s="11"/>
     </row>
     <row r="520" spans="1:1" ht="13">
-      <c r="A520" s="8"/>
+      <c r="A520" s="11"/>
     </row>
     <row r="521" spans="1:1" ht="13">
-      <c r="A521" s="8"/>
+      <c r="A521" s="11"/>
     </row>
     <row r="522" spans="1:1" ht="13">
-      <c r="A522" s="8"/>
+      <c r="A522" s="11"/>
     </row>
     <row r="523" spans="1:1" ht="13">
-      <c r="A523" s="8"/>
+      <c r="A523" s="11"/>
     </row>
     <row r="524" spans="1:1" ht="13">
-      <c r="A524" s="8"/>
+      <c r="A524" s="11"/>
     </row>
     <row r="525" spans="1:1" ht="13">
-      <c r="A525" s="8"/>
+      <c r="A525" s="11"/>
     </row>
     <row r="526" spans="1:1" ht="13">
-      <c r="A526" s="8"/>
+      <c r="A526" s="11"/>
     </row>
     <row r="527" spans="1:1" ht="13">
-      <c r="A527" s="8"/>
+      <c r="A527" s="11"/>
     </row>
     <row r="528" spans="1:1" ht="13">
-      <c r="A528" s="8"/>
+      <c r="A528" s="11"/>
     </row>
     <row r="529" spans="1:1" ht="13">
-      <c r="A529" s="8"/>
+      <c r="A529" s="11"/>
     </row>
     <row r="530" spans="1:1" ht="13">
-      <c r="A530" s="8"/>
+      <c r="A530" s="11"/>
     </row>
     <row r="531" spans="1:1" ht="13">
-      <c r="A531" s="8"/>
+      <c r="A531" s="11"/>
     </row>
     <row r="532" spans="1:1" ht="13">
-      <c r="A532" s="8"/>
+      <c r="A532" s="11"/>
     </row>
     <row r="533" spans="1:1" ht="13">
-      <c r="A533" s="8"/>
+      <c r="A533" s="11"/>
     </row>
     <row r="534" spans="1:1" ht="13">
-      <c r="A534" s="8"/>
+      <c r="A534" s="11"/>
     </row>
     <row r="535" spans="1:1" ht="13">
-      <c r="A535" s="8"/>
+      <c r="A535" s="11"/>
     </row>
     <row r="536" spans="1:1" ht="13">
-      <c r="A536" s="8"/>
+      <c r="A536" s="11"/>
     </row>
     <row r="537" spans="1:1" ht="13">
-      <c r="A537" s="8"/>
+      <c r="A537" s="11"/>
     </row>
     <row r="538" spans="1:1" ht="13">
-      <c r="A538" s="8"/>
+      <c r="A538" s="11"/>
     </row>
     <row r="539" spans="1:1" ht="13">
-      <c r="A539" s="8"/>
+      <c r="A539" s="11"/>
     </row>
     <row r="540" spans="1:1" ht="13">
-      <c r="A540" s="8"/>
+      <c r="A540" s="11"/>
     </row>
     <row r="541" spans="1:1" ht="13">
-      <c r="A541" s="8"/>
+      <c r="A541" s="11"/>
     </row>
     <row r="542" spans="1:1" ht="13">
-      <c r="A542" s="8"/>
+      <c r="A542" s="11"/>
     </row>
     <row r="543" spans="1:1" ht="13">
-      <c r="A543" s="8"/>
+      <c r="A543" s="11"/>
     </row>
     <row r="544" spans="1:1" ht="13">
-      <c r="A544" s="8"/>
+      <c r="A544" s="11"/>
     </row>
     <row r="545" spans="1:1" ht="13">
-      <c r="A545" s="8"/>
+      <c r="A545" s="11"/>
     </row>
     <row r="546" spans="1:1" ht="13">
-      <c r="A546" s="8"/>
+      <c r="A546" s="11"/>
     </row>
     <row r="547" spans="1:1" ht="13">
-      <c r="A547" s="8"/>
+      <c r="A547" s="11"/>
     </row>
     <row r="548" spans="1:1" ht="13">
-      <c r="A548" s="8"/>
+      <c r="A548" s="11"/>
     </row>
     <row r="549" spans="1:1" ht="13">
-      <c r="A549" s="8"/>
+      <c r="A549" s="11"/>
     </row>
     <row r="550" spans="1:1" ht="13">
-      <c r="A550" s="8"/>
+      <c r="A550" s="11"/>
     </row>
     <row r="551" spans="1:1" ht="13">
-      <c r="A551" s="8"/>
+      <c r="A551" s="11"/>
     </row>
     <row r="552" spans="1:1" ht="13">
-      <c r="A552" s="8"/>
+      <c r="A552" s="11"/>
     </row>
     <row r="553" spans="1:1" ht="13">
-      <c r="A553" s="8"/>
+      <c r="A553" s="11"/>
     </row>
     <row r="554" spans="1:1" ht="13">
-      <c r="A554" s="8"/>
+      <c r="A554" s="11"/>
     </row>
     <row r="555" spans="1:1" ht="13">
-      <c r="A555" s="8"/>
+      <c r="A555" s="11"/>
     </row>
     <row r="556" spans="1:1" ht="13">
-      <c r="A556" s="8"/>
+      <c r="A556" s="11"/>
     </row>
     <row r="557" spans="1:1" ht="13">
-      <c r="A557" s="8"/>
+      <c r="A557" s="11"/>
     </row>
     <row r="558" spans="1:1" ht="13">
-      <c r="A558" s="8"/>
+      <c r="A558" s="11"/>
     </row>
     <row r="559" spans="1:1" ht="13">
-      <c r="A559" s="8"/>
+      <c r="A559" s="11"/>
     </row>
     <row r="560" spans="1:1" ht="13">
-      <c r="A560" s="8"/>
+      <c r="A560" s="11"/>
     </row>
     <row r="561" spans="1:1" ht="13">
-      <c r="A561" s="8"/>
+      <c r="A561" s="11"/>
     </row>
     <row r="562" spans="1:1" ht="13">
-      <c r="A562" s="8"/>
+      <c r="A562" s="11"/>
     </row>
     <row r="563" spans="1:1" ht="13">
-      <c r="A563" s="8"/>
+      <c r="A563" s="11"/>
     </row>
     <row r="564" spans="1:1" ht="13">
-      <c r="A564" s="8"/>
+      <c r="A564" s="11"/>
     </row>
     <row r="565" spans="1:1" ht="13">
-      <c r="A565" s="8"/>
+      <c r="A565" s="11"/>
     </row>
     <row r="566" spans="1:1" ht="13">
-      <c r="A566" s="8"/>
+      <c r="A566" s="11"/>
     </row>
     <row r="567" spans="1:1" ht="13">
-      <c r="A567" s="8"/>
+      <c r="A567" s="11"/>
     </row>
     <row r="568" spans="1:1" ht="13">
-      <c r="A568" s="8"/>
+      <c r="A568" s="11"/>
     </row>
     <row r="569" spans="1:1" ht="13">
-      <c r="A569" s="8"/>
+      <c r="A569" s="11"/>
     </row>
     <row r="570" spans="1:1" ht="13">
-      <c r="A570" s="8"/>
+      <c r="A570" s="11"/>
     </row>
     <row r="571" spans="1:1" ht="13">
-      <c r="A571" s="8"/>
+      <c r="A571" s="11"/>
     </row>
     <row r="572" spans="1:1" ht="13">
-      <c r="A572" s="8"/>
+      <c r="A572" s="11"/>
     </row>
     <row r="573" spans="1:1" ht="13">
-      <c r="A573" s="8"/>
+      <c r="A573" s="11"/>
     </row>
     <row r="574" spans="1:1" ht="13">
-      <c r="A574" s="8"/>
+      <c r="A574" s="11"/>
     </row>
     <row r="575" spans="1:1" ht="13">
-      <c r="A575" s="8"/>
+      <c r="A575" s="11"/>
     </row>
     <row r="576" spans="1:1" ht="13">
-      <c r="A576" s="8"/>
+      <c r="A576" s="11"/>
     </row>
     <row r="577" spans="1:1" ht="13">
-      <c r="A577" s="8"/>
+      <c r="A577" s="11"/>
     </row>
     <row r="578" spans="1:1" ht="13">
-      <c r="A578" s="8"/>
+      <c r="A578" s="11"/>
     </row>
     <row r="579" spans="1:1" ht="13">
-      <c r="A579" s="8"/>
+      <c r="A579" s="11"/>
     </row>
     <row r="580" spans="1:1" ht="13">
-      <c r="A580" s="8"/>
+      <c r="A580" s="11"/>
     </row>
     <row r="581" spans="1:1" ht="13">
-      <c r="A581" s="8"/>
+      <c r="A581" s="11"/>
     </row>
     <row r="582" spans="1:1" ht="13">
-      <c r="A582" s="8"/>
+      <c r="A582" s="11"/>
     </row>
     <row r="583" spans="1:1" ht="13">
-      <c r="A583" s="8"/>
+      <c r="A583" s="11"/>
     </row>
     <row r="584" spans="1:1" ht="13">
-      <c r="A584" s="8"/>
+      <c r="A584" s="11"/>
     </row>
     <row r="585" spans="1:1" ht="13">
-      <c r="A585" s="8"/>
+      <c r="A585" s="11"/>
     </row>
     <row r="586" spans="1:1" ht="13">
-      <c r="A586" s="8"/>
+      <c r="A586" s="11"/>
     </row>
     <row r="587" spans="1:1" ht="13">
-      <c r="A587" s="8"/>
+      <c r="A587" s="11"/>
     </row>
     <row r="588" spans="1:1" ht="13">
-      <c r="A588" s="8"/>
+      <c r="A588" s="11"/>
     </row>
     <row r="589" spans="1:1" ht="13">
-      <c r="A589" s="8"/>
+      <c r="A589" s="11"/>
     </row>
     <row r="590" spans="1:1" ht="13">
-      <c r="A590" s="8"/>
+      <c r="A590" s="11"/>
     </row>
     <row r="591" spans="1:1" ht="13">
-      <c r="A591" s="8"/>
+      <c r="A591" s="11"/>
     </row>
     <row r="592" spans="1:1" ht="13">
-      <c r="A592" s="8"/>
+      <c r="A592" s="11"/>
     </row>
     <row r="593" spans="1:1" ht="13">
-      <c r="A593" s="8"/>
+      <c r="A593" s="11"/>
     </row>
     <row r="594" spans="1:1" ht="13">
-      <c r="A594" s="8"/>
+      <c r="A594" s="11"/>
     </row>
     <row r="595" spans="1:1" ht="13">
-      <c r="A595" s="8"/>
+      <c r="A595" s="11"/>
     </row>
     <row r="596" spans="1:1" ht="13">
-      <c r="A596" s="8"/>
+      <c r="A596" s="11"/>
     </row>
     <row r="597" spans="1:1" ht="13">
-      <c r="A597" s="8"/>
+      <c r="A597" s="11"/>
     </row>
     <row r="598" spans="1:1" ht="13">
-      <c r="A598" s="8"/>
+      <c r="A598" s="11"/>
     </row>
     <row r="599" spans="1:1" ht="13">
-      <c r="A599" s="8"/>
+      <c r="A599" s="11"/>
     </row>
     <row r="600" spans="1:1" ht="13">
-      <c r="A600" s="8"/>
+      <c r="A600" s="11"/>
     </row>
     <row r="601" spans="1:1" ht="13">
-      <c r="A601" s="8"/>
+      <c r="A601" s="11"/>
     </row>
     <row r="602" spans="1:1" ht="13">
-      <c r="A602" s="8"/>
+      <c r="A602" s="11"/>
     </row>
     <row r="603" spans="1:1" ht="13">
-      <c r="A603" s="8"/>
+      <c r="A603" s="11"/>
     </row>
     <row r="604" spans="1:1" ht="13">
-      <c r="A604" s="8"/>
+      <c r="A604" s="11"/>
     </row>
     <row r="605" spans="1:1" ht="13">
-      <c r="A605" s="8"/>
+      <c r="A605" s="11"/>
     </row>
     <row r="606" spans="1:1" ht="13">
-      <c r="A606" s="8"/>
+      <c r="A606" s="11"/>
     </row>
     <row r="607" spans="1:1" ht="13">
-      <c r="A607" s="8"/>
+      <c r="A607" s="11"/>
     </row>
     <row r="608" spans="1:1" ht="13">
-      <c r="A608" s="8"/>
+      <c r="A608" s="11"/>
     </row>
     <row r="609" spans="1:1" ht="13">
-      <c r="A609" s="8"/>
+      <c r="A609" s="11"/>
     </row>
     <row r="610" spans="1:1" ht="13">
-      <c r="A610" s="8"/>
+      <c r="A610" s="11"/>
     </row>
     <row r="611" spans="1:1" ht="13">
-      <c r="A611" s="8"/>
+      <c r="A611" s="11"/>
     </row>
     <row r="612" spans="1:1" ht="13">
-      <c r="A612" s="8"/>
+      <c r="A612" s="11"/>
     </row>
     <row r="613" spans="1:1" ht="13">
-      <c r="A613" s="8"/>
+      <c r="A613" s="11"/>
     </row>
     <row r="614" spans="1:1" ht="13">
-      <c r="A614" s="8"/>
+      <c r="A614" s="11"/>
     </row>
     <row r="615" spans="1:1" ht="13">
-      <c r="A615" s="8"/>
+      <c r="A615" s="11"/>
     </row>
     <row r="616" spans="1:1" ht="13">
-      <c r="A616" s="8"/>
+      <c r="A616" s="11"/>
     </row>
     <row r="617" spans="1:1" ht="13">
-      <c r="A617" s="8"/>
+      <c r="A617" s="11"/>
     </row>
     <row r="618" spans="1:1" ht="13">
-      <c r="A618" s="8"/>
+      <c r="A618" s="11"/>
     </row>
     <row r="619" spans="1:1" ht="13">
-      <c r="A619" s="8"/>
+      <c r="A619" s="11"/>
     </row>
     <row r="620" spans="1:1" ht="13">
-      <c r="A620" s="8"/>
+      <c r="A620" s="11"/>
     </row>
     <row r="621" spans="1:1" ht="13">
-      <c r="A621" s="8"/>
+      <c r="A621" s="11"/>
     </row>
     <row r="622" spans="1:1" ht="13">
-      <c r="A622" s="8"/>
+      <c r="A622" s="11"/>
     </row>
     <row r="623" spans="1:1" ht="13">
-      <c r="A623" s="8"/>
+      <c r="A623" s="11"/>
     </row>
     <row r="624" spans="1:1" ht="13">
-      <c r="A624" s="8"/>
+      <c r="A624" s="11"/>
     </row>
     <row r="625" spans="1:1" ht="13">
-      <c r="A625" s="8"/>
+      <c r="A625" s="11"/>
     </row>
     <row r="626" spans="1:1" ht="13">
-      <c r="A626" s="8"/>
+      <c r="A626" s="11"/>
     </row>
     <row r="627" spans="1:1" ht="13">
-      <c r="A627" s="8"/>
+      <c r="A627" s="11"/>
     </row>
     <row r="628" spans="1:1" ht="13">
-      <c r="A628" s="8"/>
+      <c r="A628" s="11"/>
     </row>
     <row r="629" spans="1:1" ht="13">
-      <c r="A629" s="8"/>
+      <c r="A629" s="11"/>
     </row>
     <row r="630" spans="1:1" ht="13">
-      <c r="A630" s="8"/>
+      <c r="A630" s="11"/>
     </row>
     <row r="631" spans="1:1" ht="13">
-      <c r="A631" s="8"/>
+      <c r="A631" s="11"/>
     </row>
     <row r="632" spans="1:1" ht="13">
-      <c r="A632" s="8"/>
+      <c r="A632" s="11"/>
     </row>
     <row r="633" spans="1:1" ht="13">
-      <c r="A633" s="8"/>
+      <c r="A633" s="11"/>
     </row>
     <row r="634" spans="1:1" ht="13">
-      <c r="A634" s="8"/>
+      <c r="A634" s="11"/>
     </row>
     <row r="635" spans="1:1" ht="13">
-      <c r="A635" s="8"/>
+      <c r="A635" s="11"/>
     </row>
     <row r="636" spans="1:1" ht="13">
-      <c r="A636" s="8"/>
+      <c r="A636" s="11"/>
     </row>
     <row r="637" spans="1:1" ht="13">
-      <c r="A637" s="8"/>
+      <c r="A637" s="11"/>
     </row>
     <row r="638" spans="1:1" ht="13">
-      <c r="A638" s="8"/>
+      <c r="A638" s="11"/>
     </row>
     <row r="639" spans="1:1" ht="13">
-      <c r="A639" s="8"/>
+      <c r="A639" s="11"/>
     </row>
     <row r="640" spans="1:1" ht="13">
-      <c r="A640" s="8"/>
+      <c r="A640" s="11"/>
     </row>
     <row r="641" spans="1:1" ht="13">
-      <c r="A641" s="8"/>
+      <c r="A641" s="11"/>
     </row>
     <row r="642" spans="1:1" ht="13">
-      <c r="A642" s="8"/>
+      <c r="A642" s="11"/>
     </row>
     <row r="643" spans="1:1" ht="13">
-      <c r="A643" s="8"/>
+      <c r="A643" s="11"/>
     </row>
     <row r="644" spans="1:1" ht="13">
-      <c r="A644" s="8"/>
+      <c r="A644" s="11"/>
     </row>
     <row r="645" spans="1:1" ht="13">
-      <c r="A645" s="8"/>
+      <c r="A645" s="11"/>
     </row>
     <row r="646" spans="1:1" ht="13">
-      <c r="A646" s="8"/>
+      <c r="A646" s="11"/>
     </row>
     <row r="647" spans="1:1" ht="13">
-      <c r="A647" s="8"/>
+      <c r="A647" s="11"/>
     </row>
     <row r="648" spans="1:1" ht="13">
-      <c r="A648" s="8"/>
+      <c r="A648" s="11"/>
     </row>
     <row r="649" spans="1:1" ht="13">
-      <c r="A649" s="8"/>
+      <c r="A649" s="11"/>
     </row>
     <row r="650" spans="1:1" ht="13">
-      <c r="A650" s="8"/>
+      <c r="A650" s="11"/>
     </row>
     <row r="651" spans="1:1" ht="13">
-      <c r="A651" s="8"/>
+      <c r="A651" s="11"/>
     </row>
     <row r="652" spans="1:1" ht="13">
-      <c r="A652" s="8"/>
+      <c r="A652" s="11"/>
     </row>
     <row r="653" spans="1:1" ht="13">
-      <c r="A653" s="8"/>
+      <c r="A653" s="11"/>
     </row>
     <row r="654" spans="1:1" ht="13">
-      <c r="A654" s="8"/>
+      <c r="A654" s="11"/>
     </row>
     <row r="655" spans="1:1" ht="13">
-      <c r="A655" s="8"/>
+      <c r="A655" s="11"/>
     </row>
     <row r="656" spans="1:1" ht="13">
-      <c r="A656" s="8"/>
+      <c r="A656" s="11"/>
     </row>
     <row r="657" spans="1:1" ht="13">
-      <c r="A657" s="8"/>
+      <c r="A657" s="11"/>
     </row>
     <row r="658" spans="1:1" ht="13">
-      <c r="A658" s="8"/>
+      <c r="A658" s="11"/>
     </row>
     <row r="659" spans="1:1" ht="13">
-      <c r="A659" s="8"/>
+      <c r="A659" s="11"/>
     </row>
     <row r="660" spans="1:1" ht="13">
-      <c r="A660" s="8"/>
+      <c r="A660" s="11"/>
     </row>
     <row r="661" spans="1:1" ht="13">
-      <c r="A661" s="8"/>
+      <c r="A661" s="11"/>
     </row>
     <row r="662" spans="1:1" ht="13">
-      <c r="A662" s="8"/>
+      <c r="A662" s="11"/>
     </row>
     <row r="663" spans="1:1" ht="13">
-      <c r="A663" s="8"/>
+      <c r="A663" s="11"/>
     </row>
     <row r="664" spans="1:1" ht="13">
-      <c r="A664" s="8"/>
+      <c r="A664" s="11"/>
     </row>
     <row r="665" spans="1:1" ht="13">
-      <c r="A665" s="8"/>
+      <c r="A665" s="11"/>
     </row>
     <row r="666" spans="1:1" ht="13">
-      <c r="A666" s="8"/>
+      <c r="A666" s="11"/>
     </row>
     <row r="667" spans="1:1" ht="13">
-      <c r="A667" s="8"/>
+      <c r="A667" s="11"/>
     </row>
     <row r="668" spans="1:1" ht="13">
-      <c r="A668" s="8"/>
+      <c r="A668" s="11"/>
     </row>
     <row r="669" spans="1:1" ht="13">
-      <c r="A669" s="8"/>
+      <c r="A669" s="11"/>
     </row>
     <row r="670" spans="1:1" ht="13">
-      <c r="A670" s="8"/>
+      <c r="A670" s="11"/>
     </row>
     <row r="671" spans="1:1" ht="13">
-      <c r="A671" s="8"/>
+      <c r="A671" s="11"/>
     </row>
     <row r="672" spans="1:1" ht="13">
-      <c r="A672" s="8"/>
+      <c r="A672" s="11"/>
     </row>
     <row r="673" spans="1:1" ht="13">
-      <c r="A673" s="8"/>
+      <c r="A673" s="11"/>
     </row>
     <row r="674" spans="1:1" ht="13">
-      <c r="A674" s="8"/>
+      <c r="A674" s="11"/>
     </row>
     <row r="675" spans="1:1" ht="13">
-      <c r="A675" s="8"/>
+      <c r="A675" s="11"/>
     </row>
     <row r="676" spans="1:1" ht="13">
-      <c r="A676" s="8"/>
+      <c r="A676" s="11"/>
     </row>
     <row r="677" spans="1:1" ht="13">
-      <c r="A677" s="8"/>
+      <c r="A677" s="11"/>
     </row>
     <row r="678" spans="1:1" ht="13">
-      <c r="A678" s="8"/>
+      <c r="A678" s="11"/>
     </row>
     <row r="679" spans="1:1" ht="13">
-      <c r="A679" s="8"/>
+      <c r="A679" s="11"/>
     </row>
     <row r="680" spans="1:1" ht="13">
-      <c r="A680" s="8"/>
+      <c r="A680" s="11"/>
     </row>
     <row r="681" spans="1:1" ht="13">
-      <c r="A681" s="8"/>
+      <c r="A681" s="11"/>
     </row>
     <row r="682" spans="1:1" ht="13">
-      <c r="A682" s="8"/>
+      <c r="A682" s="11"/>
     </row>
     <row r="683" spans="1:1" ht="13">
-      <c r="A683" s="8"/>
+      <c r="A683" s="11"/>
     </row>
     <row r="684" spans="1:1" ht="13">
-      <c r="A684" s="8"/>
+      <c r="A684" s="11"/>
     </row>
     <row r="685" spans="1:1" ht="13">
-      <c r="A685" s="8"/>
+      <c r="A685" s="11"/>
     </row>
     <row r="686" spans="1:1" ht="13">
-      <c r="A686" s="8"/>
+      <c r="A686" s="11"/>
     </row>
     <row r="687" spans="1:1" ht="13">
-      <c r="A687" s="8"/>
+      <c r="A687" s="11"/>
     </row>
     <row r="688" spans="1:1" ht="13">
-      <c r="A688" s="8"/>
+      <c r="A688" s="11"/>
     </row>
     <row r="689" spans="1:1" ht="13">
-      <c r="A689" s="8"/>
+      <c r="A689" s="11"/>
     </row>
     <row r="690" spans="1:1" ht="13">
-      <c r="A690" s="8"/>
+      <c r="A690" s="11"/>
     </row>
     <row r="691" spans="1:1" ht="13">
-      <c r="A691" s="8"/>
+      <c r="A691" s="11"/>
     </row>
     <row r="692" spans="1:1" ht="13">
-      <c r="A692" s="8"/>
+      <c r="A692" s="11"/>
     </row>
     <row r="693" spans="1:1" ht="13">
-      <c r="A693" s="8"/>
+      <c r="A693" s="11"/>
     </row>
     <row r="694" spans="1:1" ht="13">
-      <c r="A694" s="8"/>
+      <c r="A694" s="11"/>
     </row>
     <row r="695" spans="1:1" ht="13">
-      <c r="A695" s="8"/>
+      <c r="A695" s="11"/>
     </row>
     <row r="696" spans="1:1" ht="13">
-      <c r="A696" s="8"/>
+      <c r="A696" s="11"/>
     </row>
     <row r="697" spans="1:1" ht="13">
-      <c r="A697" s="8"/>
+      <c r="A697" s="11"/>
     </row>
     <row r="698" spans="1:1" ht="13">
-      <c r="A698" s="8"/>
+      <c r="A698" s="11"/>
     </row>
     <row r="699" spans="1:1" ht="13">
-      <c r="A699" s="8"/>
+      <c r="A699" s="11"/>
     </row>
     <row r="700" spans="1:1" ht="13">
-      <c r="A700" s="8"/>
+      <c r="A700" s="11"/>
     </row>
     <row r="701" spans="1:1" ht="13">
-      <c r="A701" s="8"/>
+      <c r="A701" s="11"/>
     </row>
     <row r="702" spans="1:1" ht="13">
-      <c r="A702" s="8"/>
+      <c r="A702" s="11"/>
     </row>
     <row r="703" spans="1:1" ht="13">
-      <c r="A703" s="8"/>
+      <c r="A703" s="11"/>
     </row>
     <row r="704" spans="1:1" ht="13">
-      <c r="A704" s="8"/>
+      <c r="A704" s="11"/>
     </row>
     <row r="705" spans="1:1" ht="13">
-      <c r="A705" s="8"/>
+      <c r="A705" s="11"/>
     </row>
     <row r="706" spans="1:1" ht="13">
-      <c r="A706" s="8"/>
+      <c r="A706" s="11"/>
     </row>
     <row r="707" spans="1:1" ht="13">
-      <c r="A707" s="8"/>
+      <c r="A707" s="11"/>
     </row>
     <row r="708" spans="1:1" ht="13">
-      <c r="A708" s="8"/>
+      <c r="A708" s="11"/>
     </row>
     <row r="709" spans="1:1" ht="13">
-      <c r="A709" s="8"/>
+      <c r="A709" s="11"/>
     </row>
     <row r="710" spans="1:1" ht="13">
-      <c r="A710" s="8"/>
+      <c r="A710" s="11"/>
     </row>
     <row r="711" spans="1:1" ht="13">
-      <c r="A711" s="8"/>
+      <c r="A711" s="11"/>
     </row>
     <row r="712" spans="1:1" ht="13">
-      <c r="A712" s="8"/>
+      <c r="A712" s="11"/>
     </row>
     <row r="713" spans="1:1" ht="13">
-      <c r="A713" s="8"/>
+      <c r="A713" s="11"/>
     </row>
     <row r="714" spans="1:1" ht="13">
-      <c r="A714" s="8"/>
+      <c r="A714" s="11"/>
     </row>
     <row r="715" spans="1:1" ht="13">
-      <c r="A715" s="8"/>
+      <c r="A715" s="11"/>
     </row>
     <row r="716" spans="1:1" ht="13">
-      <c r="A716" s="8"/>
+      <c r="A716" s="11"/>
     </row>
     <row r="717" spans="1:1" ht="13">
-      <c r="A717" s="8"/>
+      <c r="A717" s="11"/>
     </row>
     <row r="718" spans="1:1" ht="13">
-      <c r="A718" s="8"/>
+      <c r="A718" s="11"/>
     </row>
     <row r="719" spans="1:1" ht="13">
-      <c r="A719" s="8"/>
+      <c r="A719" s="11"/>
     </row>
     <row r="720" spans="1:1" ht="13">
-      <c r="A720" s="8"/>
+      <c r="A720" s="11"/>
     </row>
     <row r="721" spans="1:1" ht="13">
-      <c r="A721" s="8"/>
+      <c r="A721" s="11"/>
     </row>
     <row r="722" spans="1:1" ht="13">
-      <c r="A722" s="8"/>
+      <c r="A722" s="11"/>
     </row>
     <row r="723" spans="1:1" ht="13">
-      <c r="A723" s="8"/>
+      <c r="A723" s="11"/>
     </row>
     <row r="724" spans="1:1" ht="13">
-      <c r="A724" s="8"/>
+      <c r="A724" s="11"/>
     </row>
     <row r="725" spans="1:1" ht="13">
-      <c r="A725" s="8"/>
+      <c r="A725" s="11"/>
     </row>
     <row r="726" spans="1:1" ht="13">
-      <c r="A726" s="8"/>
+      <c r="A726" s="11"/>
     </row>
     <row r="727" spans="1:1" ht="13">
-      <c r="A727" s="8"/>
+      <c r="A727" s="11"/>
     </row>
     <row r="728" spans="1:1" ht="13">
-      <c r="A728" s="8"/>
+      <c r="A728" s="11"/>
     </row>
     <row r="729" spans="1:1" ht="13">
-      <c r="A729" s="8"/>
+      <c r="A729" s="11"/>
     </row>
     <row r="730" spans="1:1" ht="13">
-      <c r="A730" s="8"/>
+      <c r="A730" s="11"/>
     </row>
     <row r="731" spans="1:1" ht="13">
-      <c r="A731" s="8"/>
+      <c r="A731" s="11"/>
     </row>
     <row r="732" spans="1:1" ht="13">
-      <c r="A732" s="8"/>
+      <c r="A732" s="11"/>
     </row>
     <row r="733" spans="1:1" ht="13">
-      <c r="A733" s="8"/>
+      <c r="A733" s="11"/>
     </row>
     <row r="734" spans="1:1" ht="13">
-      <c r="A734" s="8"/>
+      <c r="A734" s="11"/>
     </row>
     <row r="735" spans="1:1" ht="13">
-      <c r="A735" s="8"/>
+      <c r="A735" s="11"/>
     </row>
     <row r="736" spans="1:1" ht="13">
-      <c r="A736" s="8"/>
+      <c r="A736" s="11"/>
     </row>
     <row r="737" spans="1:1" ht="13">
-      <c r="A737" s="8"/>
+      <c r="A737" s="11"/>
     </row>
     <row r="738" spans="1:1" ht="13">
-      <c r="A738" s="8"/>
+      <c r="A738" s="11"/>
     </row>
     <row r="739" spans="1:1" ht="13">
-      <c r="A739" s="8"/>
+      <c r="A739" s="11"/>
     </row>
     <row r="740" spans="1:1" ht="13">
-      <c r="A740" s="8"/>
+      <c r="A740" s="11"/>
     </row>
     <row r="741" spans="1:1" ht="13">
-      <c r="A741" s="8"/>
+      <c r="A741" s="11"/>
     </row>
     <row r="742" spans="1:1" ht="13">
-      <c r="A742" s="8"/>
+      <c r="A742" s="11"/>
     </row>
     <row r="743" spans="1:1" ht="13">
-      <c r="A743" s="8"/>
+      <c r="A743" s="11"/>
     </row>
     <row r="744" spans="1:1" ht="13">
-      <c r="A744" s="8"/>
+      <c r="A744" s="11"/>
     </row>
     <row r="745" spans="1:1" ht="13">
-      <c r="A745" s="8"/>
+      <c r="A745" s="11"/>
     </row>
     <row r="746" spans="1:1" ht="13">
-      <c r="A746" s="8"/>
+      <c r="A746" s="11"/>
     </row>
     <row r="747" spans="1:1" ht="13">
-      <c r="A747" s="8"/>
+      <c r="A747" s="11"/>
     </row>
     <row r="748" spans="1:1" ht="13">
-      <c r="A748" s="8"/>
+      <c r="A748" s="11"/>
     </row>
     <row r="749" spans="1:1" ht="13">
-      <c r="A749" s="8"/>
+      <c r="A749" s="11"/>
     </row>
     <row r="750" spans="1:1" ht="13">
-      <c r="A750" s="8"/>
+      <c r="A750" s="11"/>
     </row>
     <row r="751" spans="1:1" ht="13">
-      <c r="A751" s="8"/>
+      <c r="A751" s="11"/>
     </row>
     <row r="752" spans="1:1" ht="13">
-      <c r="A752" s="8"/>
+      <c r="A752" s="11"/>
     </row>
     <row r="753" spans="1:1" ht="13">
-      <c r="A753" s="8"/>
+      <c r="A753" s="11"/>
     </row>
     <row r="754" spans="1:1" ht="13">
-      <c r="A754" s="8"/>
+      <c r="A754" s="11"/>
     </row>
     <row r="755" spans="1:1" ht="13">
-      <c r="A755" s="8"/>
+      <c r="A755" s="11"/>
     </row>
     <row r="756" spans="1:1" ht="13">
-      <c r="A756" s="8"/>
+      <c r="A756" s="11"/>
     </row>
     <row r="757" spans="1:1" ht="13">
-      <c r="A757" s="8"/>
+      <c r="A757" s="11"/>
     </row>
     <row r="758" spans="1:1" ht="13">
-      <c r="A758" s="8"/>
+      <c r="A758" s="11"/>
     </row>
     <row r="759" spans="1:1" ht="13">
-      <c r="A759" s="8"/>
+      <c r="A759" s="11"/>
     </row>
     <row r="760" spans="1:1" ht="13">
-      <c r="A760" s="8"/>
+      <c r="A760" s="11"/>
     </row>
     <row r="761" spans="1:1" ht="13">
-      <c r="A761" s="8"/>
+      <c r="A761" s="11"/>
     </row>
     <row r="762" spans="1:1" ht="13">
-      <c r="A762" s="8"/>
+      <c r="A762" s="11"/>
     </row>
     <row r="763" spans="1:1" ht="13">
-      <c r="A763" s="8"/>
+      <c r="A763" s="11"/>
     </row>
     <row r="764" spans="1:1" ht="13">
-      <c r="A764" s="8"/>
+      <c r="A764" s="11"/>
     </row>
     <row r="765" spans="1:1" ht="13">
-      <c r="A765" s="8"/>
+      <c r="A765" s="11"/>
     </row>
     <row r="766" spans="1:1" ht="13">
-      <c r="A766" s="8"/>
+      <c r="A766" s="11"/>
     </row>
     <row r="767" spans="1:1" ht="13">
-      <c r="A767" s="8"/>
+      <c r="A767" s="11"/>
     </row>
     <row r="768" spans="1:1" ht="13">
-      <c r="A768" s="8"/>
+      <c r="A768" s="11"/>
     </row>
     <row r="769" spans="1:1" ht="13">
-      <c r="A769" s="8"/>
+      <c r="A769" s="11"/>
     </row>
     <row r="770" spans="1:1" ht="13">
-      <c r="A770" s="8"/>
+      <c r="A770" s="11"/>
     </row>
     <row r="771" spans="1:1" ht="13">
-      <c r="A771" s="8"/>
+      <c r="A771" s="11"/>
     </row>
     <row r="772" spans="1:1" ht="13">
-      <c r="A772" s="8"/>
+      <c r="A772" s="11"/>
     </row>
     <row r="773" spans="1:1" ht="13">
-      <c r="A773" s="8"/>
+      <c r="A773" s="11"/>
     </row>
     <row r="774" spans="1:1" ht="13">
-      <c r="A774" s="8"/>
+      <c r="A774" s="11"/>
     </row>
     <row r="775" spans="1:1" ht="13">
-      <c r="A775" s="8"/>
+      <c r="A775" s="11"/>
     </row>
     <row r="776" spans="1:1" ht="13">
-      <c r="A776" s="8"/>
+      <c r="A776" s="11"/>
     </row>
     <row r="777" spans="1:1" ht="13">
-      <c r="A777" s="8"/>
+      <c r="A777" s="11"/>
     </row>
     <row r="778" spans="1:1" ht="13">
-      <c r="A778" s="8"/>
+      <c r="A778" s="11"/>
     </row>
     <row r="779" spans="1:1" ht="13">
-      <c r="A779" s="8"/>
+      <c r="A779" s="11"/>
     </row>
     <row r="780" spans="1:1" ht="13">
-      <c r="A780" s="8"/>
+      <c r="A780" s="11"/>
     </row>
     <row r="781" spans="1:1" ht="13">
-      <c r="A781" s="8"/>
+      <c r="A781" s="11"/>
     </row>
     <row r="782" spans="1:1" ht="13">
-      <c r="A782" s="8"/>
+      <c r="A782" s="11"/>
     </row>
     <row r="783" spans="1:1" ht="13">
-      <c r="A783" s="8"/>
+      <c r="A783" s="11"/>
     </row>
     <row r="784" spans="1:1" ht="13">
-      <c r="A784" s="8"/>
+      <c r="A784" s="11"/>
     </row>
     <row r="785" spans="1:1" ht="13">
-      <c r="A785" s="8"/>
+      <c r="A785" s="11"/>
     </row>
     <row r="786" spans="1:1" ht="13">
-      <c r="A786" s="8"/>
+      <c r="A786" s="11"/>
     </row>
     <row r="787" spans="1:1" ht="13">
-      <c r="A787" s="8"/>
+      <c r="A787" s="11"/>
     </row>
     <row r="788" spans="1:1" ht="13">
-      <c r="A788" s="8"/>
+      <c r="A788" s="11"/>
     </row>
     <row r="789" spans="1:1" ht="13">
-      <c r="A789" s="8"/>
+      <c r="A789" s="11"/>
     </row>
     <row r="790" spans="1:1" ht="13">
-      <c r="A790" s="8"/>
+      <c r="A790" s="11"/>
     </row>
     <row r="791" spans="1:1" ht="13">
-      <c r="A791" s="8"/>
+      <c r="A791" s="11"/>
     </row>
     <row r="792" spans="1:1" ht="13">
-      <c r="A792" s="8"/>
+      <c r="A792" s="11"/>
     </row>
     <row r="793" spans="1:1" ht="13">
-      <c r="A793" s="8"/>
+      <c r="A793" s="11"/>
     </row>
     <row r="794" spans="1:1" ht="13">
-      <c r="A794" s="8"/>
+      <c r="A794" s="11"/>
     </row>
     <row r="795" spans="1:1" ht="13">
-      <c r="A795" s="8"/>
+      <c r="A795" s="11"/>
     </row>
     <row r="796" spans="1:1" ht="13">
-      <c r="A796" s="8"/>
+      <c r="A796" s="11"/>
     </row>
     <row r="797" spans="1:1" ht="13">
-      <c r="A797" s="8"/>
+      <c r="A797" s="11"/>
     </row>
     <row r="798" spans="1:1" ht="13">
-      <c r="A798" s="8"/>
+      <c r="A798" s="11"/>
     </row>
     <row r="799" spans="1:1" ht="13">
-      <c r="A799" s="8"/>
+      <c r="A799" s="11"/>
     </row>
     <row r="800" spans="1:1" ht="13">
-      <c r="A800" s="8"/>
+      <c r="A800" s="11"/>
     </row>
     <row r="801" spans="1:1" ht="13">
-      <c r="A801" s="8"/>
+      <c r="A801" s="11"/>
     </row>
     <row r="802" spans="1:1" ht="13">
-      <c r="A802" s="8"/>
+      <c r="A802" s="11"/>
     </row>
     <row r="803" spans="1:1" ht="13">
-      <c r="A803" s="8"/>
+      <c r="A803" s="11"/>
     </row>
     <row r="804" spans="1:1" ht="13">
-      <c r="A804" s="8"/>
+      <c r="A804" s="11"/>
     </row>
     <row r="805" spans="1:1" ht="13">
-      <c r="A805" s="8"/>
+      <c r="A805" s="11"/>
     </row>
     <row r="806" spans="1:1" ht="13">
-      <c r="A806" s="8"/>
+      <c r="A806" s="11"/>
     </row>
     <row r="807" spans="1:1" ht="13">
-      <c r="A807" s="8"/>
+      <c r="A807" s="11"/>
     </row>
     <row r="808" spans="1:1" ht="13">
-      <c r="A808" s="8"/>
+      <c r="A808" s="11"/>
     </row>
     <row r="809" spans="1:1" ht="13">
-      <c r="A809" s="8"/>
+      <c r="A809" s="11"/>
     </row>
     <row r="810" spans="1:1" ht="13">
-      <c r="A810" s="8"/>
+      <c r="A810" s="11"/>
     </row>
     <row r="811" spans="1:1" ht="13">
-      <c r="A811" s="8"/>
+      <c r="A811" s="11"/>
     </row>
     <row r="812" spans="1:1" ht="13">
-      <c r="A812" s="8"/>
+      <c r="A812" s="11"/>
     </row>
     <row r="813" spans="1:1" ht="13">
-      <c r="A813" s="8"/>
+      <c r="A813" s="11"/>
     </row>
     <row r="814" spans="1:1" ht="13">
-      <c r="A814" s="8"/>
+      <c r="A814" s="11"/>
     </row>
     <row r="815" spans="1:1" ht="13">
-      <c r="A815" s="8"/>
+      <c r="A815" s="11"/>
     </row>
     <row r="816" spans="1:1" ht="13">
-      <c r="A816" s="8"/>
+      <c r="A816" s="11"/>
     </row>
     <row r="817" spans="1:1" ht="13">
-      <c r="A817" s="8"/>
+      <c r="A817" s="11"/>
     </row>
     <row r="818" spans="1:1" ht="13">
-      <c r="A818" s="8"/>
+      <c r="A818" s="11"/>
     </row>
     <row r="819" spans="1:1" ht="13">
-      <c r="A819" s="8"/>
+      <c r="A819" s="11"/>
     </row>
     <row r="820" spans="1:1" ht="13">
-      <c r="A820" s="8"/>
+      <c r="A820" s="11"/>
     </row>
     <row r="821" spans="1:1" ht="13">
-      <c r="A821" s="8"/>
+      <c r="A821" s="11"/>
     </row>
     <row r="822" spans="1:1" ht="13">
-      <c r="A822" s="8"/>
+      <c r="A822" s="11"/>
     </row>
     <row r="823" spans="1:1" ht="13">
-      <c r="A823" s="8"/>
+      <c r="A823" s="11"/>
     </row>
     <row r="824" spans="1:1" ht="13">
-      <c r="A824" s="8"/>
+      <c r="A824" s="11"/>
     </row>
     <row r="825" spans="1:1" ht="13">
-      <c r="A825" s="8"/>
+      <c r="A825" s="11"/>
     </row>
     <row r="826" spans="1:1" ht="13">
-      <c r="A826" s="8"/>
+      <c r="A826" s="11"/>
     </row>
     <row r="827" spans="1:1" ht="13">
-      <c r="A827" s="8"/>
+      <c r="A827" s="11"/>
     </row>
     <row r="828" spans="1:1" ht="13">
-      <c r="A828" s="8"/>
+      <c r="A828" s="11"/>
     </row>
     <row r="829" spans="1:1" ht="13">
-      <c r="A829" s="8"/>
+      <c r="A829" s="11"/>
     </row>
     <row r="830" spans="1:1" ht="13">
-      <c r="A830" s="8"/>
+      <c r="A830" s="11"/>
     </row>
     <row r="831" spans="1:1" ht="13">
-      <c r="A831" s="8"/>
+      <c r="A831" s="11"/>
     </row>
     <row r="832" spans="1:1" ht="13">
-      <c r="A832" s="8"/>
+      <c r="A832" s="11"/>
     </row>
     <row r="833" spans="1:1" ht="13">
-      <c r="A833" s="8"/>
+      <c r="A833" s="11"/>
     </row>
     <row r="834" spans="1:1" ht="13">
-      <c r="A834" s="8"/>
+      <c r="A834" s="11"/>
     </row>
     <row r="835" spans="1:1" ht="13">
-      <c r="A835" s="8"/>
+      <c r="A835" s="11"/>
     </row>
     <row r="836" spans="1:1" ht="13">
-      <c r="A836" s="8"/>
+      <c r="A836" s="11"/>
     </row>
     <row r="837" spans="1:1" ht="13">
-      <c r="A837" s="8"/>
+      <c r="A837" s="11"/>
     </row>
     <row r="838" spans="1:1" ht="13">
-      <c r="A838" s="8"/>
+      <c r="A838" s="11"/>
     </row>
     <row r="839" spans="1:1" ht="13">
-      <c r="A839" s="8"/>
+      <c r="A839" s="11"/>
     </row>
     <row r="840" spans="1:1" ht="13">
-      <c r="A840" s="8"/>
+      <c r="A840" s="11"/>
     </row>
     <row r="841" spans="1:1" ht="13">
-      <c r="A841" s="8"/>
+      <c r="A841" s="11"/>
     </row>
     <row r="842" spans="1:1" ht="13">
-      <c r="A842" s="8"/>
+      <c r="A842" s="11"/>
     </row>
     <row r="843" spans="1:1" ht="13">
-      <c r="A843" s="8"/>
+      <c r="A843" s="11"/>
     </row>
     <row r="844" spans="1:1" ht="13">
-      <c r="A844" s="8"/>
+      <c r="A844" s="11"/>
     </row>
     <row r="845" spans="1:1" ht="13">
-      <c r="A845" s="8"/>
+      <c r="A845" s="11"/>
     </row>
     <row r="846" spans="1:1" ht="13">
-      <c r="A846" s="8"/>
+      <c r="A846" s="11"/>
     </row>
     <row r="847" spans="1:1" ht="13">
-      <c r="A847" s="8"/>
+      <c r="A847" s="11"/>
     </row>
     <row r="848" spans="1:1" ht="13">
-      <c r="A848" s="8"/>
+      <c r="A848" s="11"/>
     </row>
     <row r="849" spans="1:1" ht="13">
-      <c r="A849" s="8"/>
+      <c r="A849" s="11"/>
     </row>
     <row r="850" spans="1:1" ht="13">
-      <c r="A850" s="8"/>
+      <c r="A850" s="11"/>
     </row>
     <row r="851" spans="1:1" ht="13">
-      <c r="A851" s="8"/>
+      <c r="A851" s="11"/>
     </row>
     <row r="852" spans="1:1" ht="13">
-      <c r="A852" s="8"/>
+      <c r="A852" s="11"/>
     </row>
     <row r="853" spans="1:1" ht="13">
-      <c r="A853" s="8"/>
+      <c r="A853" s="11"/>
     </row>
     <row r="854" spans="1:1" ht="13">
-      <c r="A854" s="8"/>
+      <c r="A854" s="11"/>
     </row>
     <row r="855" spans="1:1" ht="13">
-      <c r="A855" s="8"/>
+      <c r="A855" s="11"/>
     </row>
     <row r="856" spans="1:1" ht="13">
-      <c r="A856" s="8"/>
+      <c r="A856" s="11"/>
     </row>
     <row r="857" spans="1:1" ht="13">
-      <c r="A857" s="8"/>
+      <c r="A857" s="11"/>
     </row>
     <row r="858" spans="1:1" ht="13">
-      <c r="A858" s="8"/>
+      <c r="A858" s="11"/>
     </row>
     <row r="859" spans="1:1" ht="13">
-      <c r="A859" s="8"/>
+      <c r="A859" s="11"/>
     </row>
     <row r="860" spans="1:1" ht="13">
-      <c r="A860" s="8"/>
+      <c r="A860" s="11"/>
     </row>
     <row r="861" spans="1:1" ht="13">
-      <c r="A861" s="8"/>
+      <c r="A861" s="11"/>
     </row>
     <row r="862" spans="1:1" ht="13">
-      <c r="A862" s="8"/>
+      <c r="A862" s="11"/>
     </row>
     <row r="863" spans="1:1" ht="13">
-      <c r="A863" s="8"/>
+      <c r="A863" s="11"/>
     </row>
     <row r="864" spans="1:1" ht="13">
-      <c r="A864" s="8"/>
+      <c r="A864" s="11"/>
     </row>
     <row r="865" spans="1:1" ht="13">
-      <c r="A865" s="8"/>
+      <c r="A865" s="11"/>
     </row>
     <row r="866" spans="1:1" ht="13">
-      <c r="A866" s="8"/>
+      <c r="A866" s="11"/>
     </row>
     <row r="867" spans="1:1" ht="13">
-      <c r="A867" s="8"/>
+      <c r="A867" s="11"/>
     </row>
     <row r="868" spans="1:1" ht="13">
-      <c r="A868" s="8"/>
+      <c r="A868" s="11"/>
     </row>
     <row r="869" spans="1:1" ht="13">
-      <c r="A869" s="8"/>
+      <c r="A869" s="11"/>
     </row>
     <row r="870" spans="1:1" ht="13">
-      <c r="A870" s="8"/>
+      <c r="A870" s="11"/>
     </row>
     <row r="871" spans="1:1" ht="13">
-      <c r="A871" s="8"/>
+      <c r="A871" s="11"/>
     </row>
     <row r="872" spans="1:1" ht="13">
-      <c r="A872" s="8"/>
+      <c r="A872" s="11"/>
     </row>
     <row r="873" spans="1:1" ht="13">
-      <c r="A873" s="8"/>
+      <c r="A873" s="11"/>
     </row>
     <row r="874" spans="1:1" ht="13">
-      <c r="A874" s="8"/>
+      <c r="A874" s="11"/>
     </row>
     <row r="875" spans="1:1" ht="13">
-      <c r="A875" s="8"/>
+      <c r="A875" s="11"/>
     </row>
     <row r="876" spans="1:1" ht="13">
-      <c r="A876" s="8"/>
+      <c r="A876" s="11"/>
     </row>
     <row r="877" spans="1:1" ht="13">
-      <c r="A877" s="8"/>
+      <c r="A877" s="11"/>
     </row>
     <row r="878" spans="1:1" ht="13">
-      <c r="A878" s="8"/>
+      <c r="A878" s="11"/>
     </row>
     <row r="879" spans="1:1" ht="13">
-      <c r="A879" s="8"/>
+      <c r="A879" s="11"/>
     </row>
     <row r="880" spans="1:1" ht="13">
-      <c r="A880" s="8"/>
+      <c r="A880" s="11"/>
     </row>
     <row r="881" spans="1:1" ht="13">
-      <c r="A881" s="8"/>
+      <c r="A881" s="11"/>
     </row>
     <row r="882" spans="1:1" ht="13">
-      <c r="A882" s="8"/>
+      <c r="A882" s="11"/>
     </row>
     <row r="883" spans="1:1" ht="13">
-      <c r="A883" s="8"/>
+      <c r="A883" s="11"/>
     </row>
     <row r="884" spans="1:1" ht="13">
-      <c r="A884" s="8"/>
+      <c r="A884" s="11"/>
     </row>
     <row r="885" spans="1:1" ht="13">
-      <c r="A885" s="8"/>
+      <c r="A885" s="11"/>
     </row>
     <row r="886" spans="1:1" ht="13">
-      <c r="A886" s="8"/>
+      <c r="A886" s="11"/>
     </row>
     <row r="887" spans="1:1" ht="13">
-      <c r="A887" s="8"/>
+      <c r="A887" s="11"/>
     </row>
     <row r="888" spans="1:1" ht="13">
-      <c r="A888" s="8"/>
+      <c r="A888" s="11"/>
     </row>
     <row r="889" spans="1:1" ht="13">
-      <c r="A889" s="8"/>
+      <c r="A889" s="11"/>
     </row>
     <row r="890" spans="1:1" ht="13">
-      <c r="A890" s="8"/>
+      <c r="A890" s="11"/>
     </row>
     <row r="891" spans="1:1" ht="13">
-      <c r="A891" s="8"/>
+      <c r="A891" s="11"/>
     </row>
     <row r="892" spans="1:1" ht="13">
-      <c r="A892" s="8"/>
+      <c r="A892" s="11"/>
     </row>
     <row r="893" spans="1:1" ht="13">
-      <c r="A893" s="8"/>
+      <c r="A893" s="11"/>
     </row>
     <row r="894" spans="1:1" ht="13">
-      <c r="A894" s="8"/>
+      <c r="A894" s="11"/>
     </row>
     <row r="895" spans="1:1" ht="13">
-      <c r="A895" s="8"/>
+      <c r="A895" s="11"/>
     </row>
     <row r="896" spans="1:1" ht="13">
-      <c r="A896" s="8"/>
+      <c r="A896" s="11"/>
     </row>
     <row r="897" spans="1:1" ht="13">
-      <c r="A897" s="8"/>
+      <c r="A897" s="11"/>
     </row>
     <row r="898" spans="1:1" ht="13">
-      <c r="A898" s="8"/>
+      <c r="A898" s="11"/>
     </row>
     <row r="899" spans="1:1" ht="13">
-      <c r="A899" s="8"/>
+      <c r="A899" s="11"/>
     </row>
     <row r="900" spans="1:1" ht="13">
-      <c r="A900" s="8"/>
+      <c r="A900" s="11"/>
     </row>
     <row r="901" spans="1:1" ht="13">
-      <c r="A901" s="8"/>
+      <c r="A901" s="11"/>
     </row>
     <row r="902" spans="1:1" ht="13">
-      <c r="A902" s="8"/>
+      <c r="A902" s="11"/>
     </row>
     <row r="903" spans="1:1" ht="13">
-      <c r="A903" s="8"/>
+      <c r="A903" s="11"/>
     </row>
     <row r="904" spans="1:1" ht="13">
-      <c r="A904" s="8"/>
+      <c r="A904" s="11"/>
     </row>
     <row r="905" spans="1:1" ht="13">
-      <c r="A905" s="8"/>
+      <c r="A905" s="11"/>
     </row>
     <row r="906" spans="1:1" ht="13">
-      <c r="A906" s="8"/>
+      <c r="A906" s="11"/>
     </row>
     <row r="907" spans="1:1" ht="13">
-      <c r="A907" s="8"/>
+      <c r="A907" s="11"/>
     </row>
     <row r="908" spans="1:1" ht="13">
-      <c r="A908" s="8"/>
+      <c r="A908" s="11"/>
     </row>
     <row r="909" spans="1:1" ht="13">
-      <c r="A909" s="8"/>
+      <c r="A909" s="11"/>
     </row>
     <row r="910" spans="1:1" ht="13">
-      <c r="A910" s="8"/>
+      <c r="A910" s="11"/>
     </row>
     <row r="911" spans="1:1" ht="13">
-      <c r="A911" s="8"/>
+      <c r="A911" s="11"/>
     </row>
     <row r="912" spans="1:1" ht="13">
-      <c r="A912" s="8"/>
+      <c r="A912" s="11"/>
     </row>
     <row r="913" spans="1:1" ht="13">
-      <c r="A913" s="8"/>
+      <c r="A913" s="11"/>
     </row>
     <row r="914" spans="1:1" ht="13">
-      <c r="A914" s="8"/>
+      <c r="A914" s="11"/>
     </row>
     <row r="915" spans="1:1" ht="13">
-      <c r="A915" s="8"/>
+      <c r="A915" s="11"/>
     </row>
     <row r="916" spans="1:1" ht="13">
-      <c r="A916" s="8"/>
+      <c r="A916" s="11"/>
     </row>
     <row r="917" spans="1:1" ht="13">
-      <c r="A917" s="8"/>
+      <c r="A917" s="11"/>
     </row>
     <row r="918" spans="1:1" ht="13">
-      <c r="A918" s="8"/>
+      <c r="A918" s="11"/>
     </row>
     <row r="919" spans="1:1" ht="13">
-      <c r="A919" s="8"/>
+      <c r="A919" s="11"/>
     </row>
     <row r="920" spans="1:1" ht="13">
-      <c r="A920" s="8"/>
+      <c r="A920" s="11"/>
     </row>
     <row r="921" spans="1:1" ht="13">
-      <c r="A921" s="8"/>
+      <c r="A921" s="11"/>
     </row>
     <row r="922" spans="1:1" ht="13">
-      <c r="A922" s="8"/>
+      <c r="A922" s="11"/>
     </row>
     <row r="923" spans="1:1" ht="13">
-      <c r="A923" s="8"/>
+      <c r="A923" s="11"/>
     </row>
     <row r="924" spans="1:1" ht="13">
-      <c r="A924" s="8"/>
+      <c r="A924" s="11"/>
     </row>
     <row r="925" spans="1:1" ht="13">
-      <c r="A925" s="8"/>
+      <c r="A925" s="11"/>
     </row>
     <row r="926" spans="1:1" ht="13">
-      <c r="A926" s="8"/>
+      <c r="A926" s="11"/>
     </row>
     <row r="927" spans="1:1" ht="13">
-      <c r="A927" s="8"/>
+      <c r="A927" s="11"/>
     </row>
     <row r="928" spans="1:1" ht="13">
-      <c r="A928" s="8"/>
+      <c r="A928" s="11"/>
     </row>
     <row r="929" spans="1:1" ht="13">
-      <c r="A929" s="8"/>
+      <c r="A929" s="11"/>
     </row>
     <row r="930" spans="1:1" ht="13">
-      <c r="A930" s="8"/>
+      <c r="A930" s="11"/>
     </row>
     <row r="931" spans="1:1" ht="13">
-      <c r="A931" s="8"/>
+      <c r="A931" s="11"/>
     </row>
     <row r="932" spans="1:1" ht="13">
-      <c r="A932" s="8"/>
+      <c r="A932" s="11"/>
     </row>
     <row r="933" spans="1:1" ht="13">
-      <c r="A933" s="8"/>
+      <c r="A933" s="11"/>
     </row>
     <row r="934" spans="1:1" ht="13">
-      <c r="A934" s="8"/>
+      <c r="A934" s="11"/>
     </row>
     <row r="935" spans="1:1" ht="13">
-      <c r="A935" s="8"/>
+      <c r="A935" s="11"/>
     </row>
     <row r="936" spans="1:1" ht="13">
-      <c r="A936" s="8"/>
+      <c r="A936" s="11"/>
     </row>
     <row r="937" spans="1:1" ht="13">
-      <c r="A937" s="8"/>
+      <c r="A937" s="11"/>
     </row>
     <row r="938" spans="1:1" ht="13">
-      <c r="A938" s="8"/>
+      <c r="A938" s="11"/>
     </row>
     <row r="939" spans="1:1" ht="13">
-      <c r="A939" s="8"/>
+      <c r="A939" s="11"/>
     </row>
     <row r="940" spans="1:1" ht="13">
-      <c r="A940" s="8"/>
+      <c r="A940" s="11"/>
     </row>
     <row r="941" spans="1:1" ht="13">
-      <c r="A941" s="8"/>
+      <c r="A941" s="11"/>
     </row>
     <row r="942" spans="1:1" ht="13">
-      <c r="A942" s="8"/>
+      <c r="A942" s="11"/>
     </row>
     <row r="943" spans="1:1" ht="13">
-      <c r="A943" s="8"/>
+      <c r="A943" s="11"/>
     </row>
     <row r="944" spans="1:1" ht="13">
-      <c r="A944" s="8"/>
+      <c r="A944" s="11"/>
     </row>
     <row r="945" spans="1:1" ht="13">
-      <c r="A945" s="8"/>
+      <c r="A945" s="11"/>
     </row>
     <row r="946" spans="1:1" ht="13">
-      <c r="A946" s="8"/>
+      <c r="A946" s="11"/>
     </row>
     <row r="947" spans="1:1" ht="13">
-      <c r="A947" s="8"/>
+      <c r="A947" s="11"/>
     </row>
     <row r="948" spans="1:1" ht="13">
-      <c r="A948" s="8"/>
+      <c r="A948" s="11"/>
     </row>
     <row r="949" spans="1:1" ht="13">
-      <c r="A949" s="8"/>
+      <c r="A949" s="11"/>
     </row>
     <row r="950" spans="1:1" ht="13">
-      <c r="A950" s="8"/>
+      <c r="A950" s="11"/>
     </row>
     <row r="951" spans="1:1" ht="13">
-      <c r="A951" s="8"/>
+      <c r="A951" s="11"/>
     </row>
     <row r="952" spans="1:1" ht="13">
-      <c r="A952" s="8"/>
+      <c r="A952" s="11"/>
     </row>
     <row r="953" spans="1:1" ht="13">
-      <c r="A953" s="8"/>
+      <c r="A953" s="11"/>
     </row>
     <row r="954" spans="1:1" ht="13">
-      <c r="A954" s="8"/>
+      <c r="A954" s="11"/>
     </row>
     <row r="955" spans="1:1" ht="13">
-      <c r="A955" s="8"/>
+      <c r="A955" s="11"/>
     </row>
     <row r="956" spans="1:1" ht="13">
-      <c r="A956" s="8"/>
+      <c r="A956" s="11"/>
     </row>
     <row r="957" spans="1:1" ht="13">
-      <c r="A957" s="8"/>
+      <c r="A957" s="11"/>
     </row>
     <row r="958" spans="1:1" ht="13">
-      <c r="A958" s="8"/>
+      <c r="A958" s="11"/>
     </row>
     <row r="959" spans="1:1" ht="13">
-      <c r="A959" s="8"/>
+      <c r="A959" s="11"/>
     </row>
     <row r="960" spans="1:1" ht="13">
-      <c r="A960" s="8"/>
+      <c r="A960" s="11"/>
     </row>
     <row r="961" spans="1:1" ht="13">
-      <c r="A961" s="8"/>
+      <c r="A961" s="11"/>
     </row>
     <row r="962" spans="1:1" ht="13">
-      <c r="A962" s="8"/>
+      <c r="A962" s="11"/>
     </row>
     <row r="963" spans="1:1" ht="13">
-      <c r="A963" s="8"/>
+      <c r="A963" s="11"/>
     </row>
     <row r="964" spans="1:1" ht="13">
-      <c r="A964" s="8"/>
+      <c r="A964" s="11"/>
     </row>
     <row r="965" spans="1:1" ht="13">
-      <c r="A965" s="8"/>
+      <c r="A965" s="11"/>
     </row>
     <row r="966" spans="1:1" ht="13">
-      <c r="A966" s="8"/>
+      <c r="A966" s="11"/>
     </row>
     <row r="967" spans="1:1" ht="13">
-      <c r="A967" s="8"/>
+      <c r="A967" s="11"/>
     </row>
     <row r="968" spans="1:1" ht="13">
-      <c r="A968" s="8"/>
+      <c r="A968" s="11"/>
     </row>
     <row r="969" spans="1:1" ht="13">
-      <c r="A969" s="8"/>
+      <c r="A969" s="11"/>
     </row>
     <row r="970" spans="1:1" ht="13">
-      <c r="A970" s="8"/>
+      <c r="A970" s="11"/>
     </row>
     <row r="971" spans="1:1" ht="13">
-      <c r="A971" s="8"/>
+      <c r="A971" s="11"/>
     </row>
     <row r="972" spans="1:1" ht="13">
-      <c r="A972" s="8"/>
+      <c r="A972" s="11"/>
     </row>
     <row r="973" spans="1:1" ht="13">
-      <c r="A973" s="8"/>
+      <c r="A973" s="11"/>
     </row>
     <row r="974" spans="1:1" ht="13">
-      <c r="A974" s="8"/>
+      <c r="A974" s="11"/>
     </row>
     <row r="975" spans="1:1" ht="13">
-      <c r="A975" s="8"/>
+      <c r="A975" s="11"/>
     </row>
     <row r="976" spans="1:1" ht="13">
-      <c r="A976" s="8"/>
+      <c r="A976" s="11"/>
     </row>
     <row r="977" spans="1:1" ht="13">
-      <c r="A977" s="8"/>
+      <c r="A977" s="11"/>
     </row>
     <row r="978" spans="1:1" ht="13">
-      <c r="A978" s="8"/>
+      <c r="A978" s="11"/>
     </row>
     <row r="979" spans="1:1" ht="13">
-      <c r="A979" s="8"/>
+      <c r="A979" s="11"/>
     </row>
     <row r="980" spans="1:1" ht="13">
-      <c r="A980" s="8"/>
+      <c r="A980" s="11"/>
     </row>
     <row r="981" spans="1:1" ht="13">
-      <c r="A981" s="8"/>
+      <c r="A981" s="11"/>
     </row>
     <row r="982" spans="1:1" ht="13">
-      <c r="A982" s="8"/>
+      <c r="A982" s="11"/>
     </row>
     <row r="983" spans="1:1" ht="13">
-      <c r="A983" s="8"/>
+      <c r="A983" s="11"/>
     </row>
     <row r="984" spans="1:1" ht="13">
-      <c r="A984" s="8"/>
+      <c r="A984" s="11"/>
     </row>
     <row r="985" spans="1:1" ht="13">
-      <c r="A985" s="8"/>
+      <c r="A985" s="11"/>
     </row>
     <row r="986" spans="1:1" ht="13">
-      <c r="A986" s="8"/>
+      <c r="A986" s="11"/>
     </row>
     <row r="987" spans="1:1" ht="13">
-      <c r="A987" s="8"/>
+      <c r="A987" s="11"/>
     </row>
     <row r="988" spans="1:1" ht="13">
-      <c r="A988" s="8"/>
+      <c r="A988" s="11"/>
     </row>
     <row r="989" spans="1:1" ht="13">
-      <c r="A989" s="8"/>
+      <c r="A989" s="11"/>
     </row>
     <row r="990" spans="1:1" ht="13">
-      <c r="A990" s="8"/>
+      <c r="A990" s="11"/>
     </row>
     <row r="991" spans="1:1" ht="13">
-      <c r="A991" s="8"/>
+      <c r="A991" s="11"/>
     </row>
     <row r="992" spans="1:1" ht="13">
-      <c r="A992" s="8"/>
+      <c r="A992" s="11"/>
     </row>
     <row r="993" spans="1:1" ht="13">
-      <c r="A993" s="8"/>
+      <c r="A993" s="11"/>
     </row>
     <row r="994" spans="1:1" ht="13">
-      <c r="A994" s="8"/>
+      <c r="A994" s="11"/>
     </row>
     <row r="995" spans="1:1" ht="13">
-      <c r="A995" s="8"/>
+      <c r="A995" s="11"/>
     </row>
     <row r="996" spans="1:1" ht="13">
-      <c r="A996" s="8"/>
+      <c r="A996" s="11"/>
     </row>
     <row r="997" spans="1:1" ht="13">
-      <c r="A997" s="8"/>
+      <c r="A997" s="11"/>
     </row>
     <row r="998" spans="1:1" ht="13">
-      <c r="A998" s="8"/>
+      <c r="A998" s="11"/>
     </row>
     <row r="999" spans="1:1" ht="13">
-      <c r="A999" s="8"/>
+      <c r="A999" s="11"/>
     </row>
     <row r="1000" spans="1:1" ht="13">
-      <c r="A1000" s="8"/>
+      <c r="A1000" s="11"/>
     </row>
     <row r="1001" spans="1:1" ht="13">
-      <c r="A1001" s="8"/>
+      <c r="A1001" s="11"/>
     </row>
     <row r="1002" spans="1:1" ht="13">
-      <c r="A1002" s="8"/>
+      <c r="A1002" s="11"/>
     </row>
     <row r="1003" spans="1:1" ht="13">
-      <c r="A1003" s="8"/>
+      <c r="A1003" s="11"/>
     </row>
     <row r="1004" spans="1:1" ht="13">
-      <c r="A1004" s="8"/>
+      <c r="A1004" s="11"/>
     </row>
     <row r="1005" spans="1:1" ht="13">
-      <c r="A1005" s="8"/>
+      <c r="A1005" s="11"/>
     </row>
     <row r="1006" spans="1:1" ht="13">
-      <c r="A1006" s="8"/>
+      <c r="A1006" s="11"/>
     </row>
     <row r="1007" spans="1:1" ht="13">
-      <c r="A1007" s="8"/>
+      <c r="A1007" s="11"/>
     </row>
     <row r="1008" spans="1:1" ht="13">
-      <c r="A1008" s="8"/>
+      <c r="A1008" s="11"/>
     </row>
     <row r="1009" spans="1:1" ht="13">
-      <c r="A1009" s="8"/>
+      <c r="A1009" s="11"/>
     </row>
     <row r="1010" spans="1:1" ht="13">
-      <c r="A1010" s="8"/>
+      <c r="A1010" s="11"/>
     </row>
     <row r="1011" spans="1:1" ht="13">
-      <c r="A1011" s="8"/>
+      <c r="A1011" s="11"/>
     </row>
     <row r="1012" spans="1:1" ht="13">
-      <c r="A1012" s="8"/>
+      <c r="A1012" s="11"/>
     </row>
     <row r="1013" spans="1:1" ht="13">
-      <c r="A1013" s="8"/>
+      <c r="A1013" s="11"/>
     </row>
     <row r="1014" spans="1:1" ht="13">
-      <c r="A1014" s="8"/>
+      <c r="A1014" s="11"/>
     </row>
     <row r="1015" spans="1:1" ht="13">
-      <c r="A1015" s="8"/>
+      <c r="A1015" s="11"/>
     </row>
     <row r="1016" spans="1:1" ht="13">
-      <c r="A1016" s="8"/>
+      <c r="A1016" s="11"/>
     </row>
     <row r="1017" spans="1:1" ht="13">
-      <c r="A1017" s="8"/>
+      <c r="A1017" s="11"/>
     </row>
     <row r="1018" spans="1:1" ht="13">
-      <c r="A1018" s="8"/>
+      <c r="A1018" s="11"/>
     </row>
     <row r="1019" spans="1:1" ht="13">
-      <c r="A1019" s="8"/>
+      <c r="A1019" s="11"/>
     </row>
     <row r="1020" spans="1:1" ht="13">
-      <c r="A1020" s="8"/>
+      <c r="A1020" s="11"/>
     </row>
     <row r="1021" spans="1:1" ht="13">
-      <c r="A1021" s="8"/>
+      <c r="A1021" s="11"/>
     </row>
     <row r="1022" spans="1:1" ht="13">
-      <c r="A1022" s="8"/>
+      <c r="A1022" s="11"/>
     </row>
     <row r="1023" spans="1:1" ht="13">
-      <c r="A1023" s="8"/>
+      <c r="A1023" s="11"/>
     </row>
     <row r="1024" spans="1:1" ht="13">
-      <c r="A1024" s="8"/>
+      <c r="A1024" s="11"/>
     </row>
     <row r="1025" spans="1:1" ht="13">
-      <c r="A1025" s="8"/>
+      <c r="A1025" s="11"/>
     </row>
     <row r="1026" spans="1:1" ht="13">
-      <c r="A1026" s="8"/>
+      <c r="A1026" s="11"/>
     </row>
     <row r="1027" spans="1:1" ht="13">
-      <c r="A1027" s="8"/>
+      <c r="A1027" s="11"/>
     </row>
     <row r="1028" spans="1:1" ht="13">
-      <c r="A1028" s="8"/>
+      <c r="A1028" s="11"/>
     </row>
     <row r="1029" spans="1:1" ht="13">
-      <c r="A1029" s="8"/>
+      <c r="A1029" s="11"/>
     </row>
     <row r="1030" spans="1:1" ht="13">
-      <c r="A1030" s="8"/>
+      <c r="A1030" s="11"/>
     </row>
     <row r="1031" spans="1:1" ht="13">
-      <c r="A1031" s="8"/>
+      <c r="A1031" s="11"/>
     </row>
     <row r="1032" spans="1:1" ht="13">
-      <c r="A1032" s="8"/>
+      <c r="A1032" s="11"/>
     </row>
     <row r="1033" spans="1:1" ht="13">
-      <c r="A1033" s="8"/>
+      <c r="A1033" s="11"/>
     </row>
     <row r="1034" spans="1:1" ht="13">
-      <c r="A1034" s="8"/>
+      <c r="A1034" s="11"/>
     </row>
     <row r="1035" spans="1:1" ht="13">
-      <c r="A1035" s="8"/>
+      <c r="A1035" s="11"/>
     </row>
     <row r="1036" spans="1:1" ht="13">
-      <c r="A1036" s="8"/>
+      <c r="A1036" s="11"/>
     </row>
     <row r="1037" spans="1:1" ht="13">
-      <c r="A1037" s="8"/>
+      <c r="A1037" s="11"/>
     </row>
     <row r="1038" spans="1:1" ht="13">
-      <c r="A1038" s="8"/>
+      <c r="A1038" s="11"/>
     </row>
     <row r="1039" spans="1:1" ht="13">
-      <c r="A1039" s="8"/>
+      <c r="A1039" s="11"/>
     </row>
     <row r="1040" spans="1:1" ht="13">
-      <c r="A1040" s="8"/>
+      <c r="A1040" s="11"/>
     </row>
     <row r="1041" spans="1:1" ht="13">
-      <c r="A1041" s="8"/>
+      <c r="A1041" s="11"/>
     </row>
     <row r="1042" spans="1:1" ht="13">
-      <c r="A1042" s="8"/>
+      <c r="A1042" s="11"/>
     </row>
     <row r="1043" spans="1:1" ht="13">
-      <c r="A1043" s="8"/>
+      <c r="A1043" s="11"/>
     </row>
     <row r="1044" spans="1:1" ht="13">
-      <c r="A1044" s="8"/>
+      <c r="A1044" s="11"/>
     </row>
     <row r="1045" spans="1:1" ht="13">
-      <c r="A1045" s="8"/>
+      <c r="A1045" s="11"/>
     </row>
     <row r="1046" spans="1:1" ht="13">
-      <c r="A1046" s="8"/>
+      <c r="A1046" s="11"/>
     </row>
     <row r="1047" spans="1:1" ht="13">
-      <c r="A1047" s="8"/>
+      <c r="A1047" s="11"/>
     </row>
     <row r="1048" spans="1:1" ht="13">
-      <c r="A1048" s="8"/>
+      <c r="A1048" s="11"/>
     </row>
     <row r="1049" spans="1:1" ht="13">
-      <c r="A1049" s="8"/>
+      <c r="A1049" s="11"/>
     </row>
     <row r="1050" spans="1:1" ht="13">
-      <c r="A1050" s="8"/>
+      <c r="A1050" s="11"/>
     </row>
     <row r="1051" spans="1:1" ht="13">
-      <c r="A1051" s="8"/>
+      <c r="A1051" s="11"/>
     </row>
     <row r="1052" spans="1:1" ht="13">
-      <c r="A1052" s="8"/>
+      <c r="A1052" s="11"/>
     </row>
     <row r="1053" spans="1:1" ht="13">
-      <c r="A1053" s="8"/>
+      <c r="A1053" s="11"/>
     </row>
     <row r="1054" spans="1:1" ht="13">
-      <c r="A1054" s="8"/>
+      <c r="A1054" s="11"/>
     </row>
     <row r="1055" spans="1:1" ht="13">
-      <c r="A1055" s="8"/>
+      <c r="A1055" s="11"/>
     </row>
     <row r="1056" spans="1:1" ht="13">
-      <c r="A1056" s="8"/>
+      <c r="A1056" s="11"/>
     </row>
     <row r="1057" spans="1:1" ht="13">
-      <c r="A1057" s="8"/>
+      <c r="A1057" s="11"/>
     </row>
     <row r="1058" spans="1:1" ht="13">
-      <c r="A1058" s="8"/>
+      <c r="A1058" s="11"/>
     </row>
     <row r="1059" spans="1:1" ht="13">
-      <c r="A1059" s="8"/>
+      <c r="A1059" s="11"/>
     </row>
     <row r="1060" spans="1:1" ht="13">
-      <c r="A1060" s="8"/>
+      <c r="A1060" s="11"/>
     </row>
     <row r="1061" spans="1:1" ht="13">
-      <c r="A1061" s="8"/>
+      <c r="A1061" s="11"/>
     </row>
     <row r="1062" spans="1:1" ht="13">
-      <c r="A1062" s="8"/>
+      <c r="A1062" s="11"/>
     </row>
     <row r="1063" spans="1:1" ht="13">
-      <c r="A1063" s="8"/>
+      <c r="A1063" s="11"/>
     </row>
     <row r="1064" spans="1:1" ht="13">
-      <c r="A1064" s="8"/>
+      <c r="A1064" s="11"/>
     </row>
     <row r="1065" spans="1:1" ht="13">
-      <c r="A1065" s="8"/>
+      <c r="A1065" s="11"/>
     </row>
     <row r="1066" spans="1:1" ht="13">
-      <c r="A1066" s="8"/>
+      <c r="A1066" s="11"/>
     </row>
     <row r="1067" spans="1:1" ht="13">
-      <c r="A1067" s="8"/>
+      <c r="A1067" s="11"/>
     </row>
     <row r="1068" spans="1:1" ht="13">
-      <c r="A1068" s="8"/>
+      <c r="A1068" s="11"/>
     </row>
     <row r="1069" spans="1:1" ht="13">
-      <c r="A1069" s="8"/>
+      <c r="A1069" s="11"/>
     </row>
     <row r="1070" spans="1:1" ht="13">
-      <c r="A1070" s="8"/>
+      <c r="A1070" s="11"/>
     </row>
     <row r="1071" spans="1:1" ht="13">
-      <c r="A1071" s="8"/>
+      <c r="A1071" s="11"/>
     </row>
     <row r="1072" spans="1:1" ht="13">
-      <c r="A1072" s="8"/>
+      <c r="A1072" s="11"/>
     </row>
     <row r="1073" spans="1:1" ht="13">
-      <c r="A1073" s="8"/>
+      <c r="A1073" s="11"/>
     </row>
     <row r="1074" spans="1:1" ht="13">
-      <c r="A1074" s="8"/>
+      <c r="A1074" s="11"/>
     </row>
     <row r="1075" spans="1:1" ht="13">
-      <c r="A1075" s="8"/>
+      <c r="A1075" s="11"/>
     </row>
     <row r="1076" spans="1:1" ht="13">
-      <c r="A1076" s="8"/>
+      <c r="A1076" s="11"/>
     </row>
     <row r="1077" spans="1:1" ht="13">
-      <c r="A1077" s="8"/>
+      <c r="A1077" s="11"/>
     </row>
     <row r="1078" spans="1:1" ht="13">
-      <c r="A1078" s="8"/>
+      <c r="A1078" s="11"/>
     </row>
     <row r="1079" spans="1:1" ht="13">
-      <c r="A1079" s="8"/>
+      <c r="A1079" s="11"/>
     </row>
     <row r="1080" spans="1:1" ht="13">
-      <c r="A1080" s="8"/>
+      <c r="A1080" s="11"/>
     </row>
     <row r="1081" spans="1:1" ht="13">
-      <c r="A1081" s="8"/>
+      <c r="A1081" s="11"/>
     </row>
     <row r="1082" spans="1:1" ht="13">
-      <c r="A1082" s="8"/>
+      <c r="A1082" s="11"/>
     </row>
     <row r="1083" spans="1:1" ht="13">
-      <c r="A1083" s="8"/>
+      <c r="A1083" s="11"/>
     </row>
     <row r="1084" spans="1:1" ht="13">
-      <c r="A1084" s="8"/>
+      <c r="A1084" s="11"/>
     </row>
     <row r="1085" spans="1:1" ht="13">
-      <c r="A1085" s="8"/>
+      <c r="A1085" s="11"/>
     </row>
     <row r="1086" spans="1:1" ht="13">
-      <c r="A1086" s="8"/>
+      <c r="A1086" s="11"/>
     </row>
     <row r="1087" spans="1:1" ht="13">
-      <c r="A1087" s="8"/>
+      <c r="A1087" s="11"/>
     </row>
     <row r="1088" spans="1:1" ht="13">
-      <c r="A1088" s="8"/>
+      <c r="A1088" s="11"/>
     </row>
     <row r="1089" spans="1:1" ht="13">
-      <c r="A1089" s="8"/>
+      <c r="A1089" s="11"/>
     </row>
     <row r="1090" spans="1:1" ht="13">
-      <c r="A1090" s="8"/>
+      <c r="A1090" s="11"/>
     </row>
     <row r="1091" spans="1:1" ht="13">
-      <c r="A1091" s="8"/>
+      <c r="A1091" s="11"/>
     </row>
     <row r="1092" spans="1:1" ht="13">
-      <c r="A1092" s="8"/>
+      <c r="A1092" s="11"/>
     </row>
     <row r="1093" spans="1:1" ht="13">
-      <c r="A1093" s="8"/>
+      <c r="A1093" s="11"/>
     </row>
     <row r="1094" spans="1:1" ht="13">
-      <c r="A1094" s="8"/>
+      <c r="A1094" s="11"/>
     </row>
     <row r="1095" spans="1:1" ht="13">
-      <c r="A1095" s="8"/>
+      <c r="A1095" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
